--- a/7.単体テスト/単体テスト_ユーザー設定.xlsx
+++ b/7.単体テスト/単体テスト_ユーザー設定.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\groupA\7.単体テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\単体テスト\groupA\7.単体テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7376DBC0-064E-41AE-8832-46D8EC4C2314}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826105D8-285D-4C6A-9981-E9AAD7D006FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="804" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="62">
   <si>
     <t>最終更新日</t>
     <rPh sb="0" eb="2">
@@ -474,6 +474,16 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>石川</t>
+    <rPh sb="0" eb="2">
+      <t>イシカワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -616,7 +626,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="63">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -766,21 +776,6 @@
       </right>
       <top/>
       <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -965,47 +960,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1014,19 +968,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1079,47 +1020,6 @@
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -1277,17 +1177,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1383,19 +1272,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1409,7 +1285,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1424,83 +1300,167 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="20" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="5" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="25" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="28" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="5" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="31" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="33" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="33" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="37" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="35" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="38" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="39" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="40" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="27" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="42" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="37" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="5" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="48" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="49" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1547,6 +1507,33 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1556,188 +1543,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="37" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="28" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="37" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="38" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="41" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="37" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="45" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="46" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="47" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="48" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="45" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="28" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="50" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="53" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="30" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="45" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="5" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="57" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="58" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="59" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="60" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="61" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="62" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2680,34 +2511,34 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="N10" s="34" t="s">
+      <c r="N10" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="35"/>
-      <c r="Y10" s="35"/>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="35"/>
-      <c r="AB10" s="35"/>
-      <c r="AC10" s="35"/>
-      <c r="AD10" s="35"/>
-      <c r="AE10" s="35"/>
-      <c r="AF10" s="35"/>
-      <c r="AG10" s="35"/>
-      <c r="AH10" s="35"/>
-      <c r="AI10" s="35"/>
-      <c r="AJ10" s="35"/>
-      <c r="AK10" s="35"/>
-      <c r="AL10" s="35"/>
-      <c r="AM10" s="36"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="63"/>
+      <c r="T10" s="63"/>
+      <c r="U10" s="63"/>
+      <c r="V10" s="63"/>
+      <c r="W10" s="63"/>
+      <c r="X10" s="63"/>
+      <c r="Y10" s="63"/>
+      <c r="Z10" s="63"/>
+      <c r="AA10" s="63"/>
+      <c r="AB10" s="63"/>
+      <c r="AC10" s="63"/>
+      <c r="AD10" s="63"/>
+      <c r="AE10" s="63"/>
+      <c r="AF10" s="63"/>
+      <c r="AG10" s="63"/>
+      <c r="AH10" s="63"/>
+      <c r="AI10" s="63"/>
+      <c r="AJ10" s="63"/>
+      <c r="AK10" s="63"/>
+      <c r="AL10" s="63"/>
+      <c r="AM10" s="64"/>
       <c r="AN10" s="2"/>
       <c r="AO10" s="2"/>
       <c r="AP10" s="2"/>
@@ -2742,32 +2573,32 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="38"/>
-      <c r="W11" s="38"/>
-      <c r="X11" s="38"/>
-      <c r="Y11" s="38"/>
-      <c r="Z11" s="38"/>
-      <c r="AA11" s="38"/>
-      <c r="AB11" s="38"/>
-      <c r="AC11" s="38"/>
-      <c r="AD11" s="38"/>
-      <c r="AE11" s="38"/>
-      <c r="AF11" s="38"/>
-      <c r="AG11" s="38"/>
-      <c r="AH11" s="38"/>
-      <c r="AI11" s="38"/>
-      <c r="AJ11" s="38"/>
-      <c r="AK11" s="38"/>
-      <c r="AL11" s="38"/>
-      <c r="AM11" s="39"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="66"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="66"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="66"/>
+      <c r="Z11" s="66"/>
+      <c r="AA11" s="66"/>
+      <c r="AB11" s="66"/>
+      <c r="AC11" s="66"/>
+      <c r="AD11" s="66"/>
+      <c r="AE11" s="66"/>
+      <c r="AF11" s="66"/>
+      <c r="AG11" s="66"/>
+      <c r="AH11" s="66"/>
+      <c r="AI11" s="66"/>
+      <c r="AJ11" s="66"/>
+      <c r="AK11" s="66"/>
+      <c r="AL11" s="66"/>
+      <c r="AM11" s="67"/>
       <c r="AN11" s="2"/>
       <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
@@ -2802,32 +2633,32 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="38"/>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="38"/>
-      <c r="Z12" s="38"/>
-      <c r="AA12" s="38"/>
-      <c r="AB12" s="38"/>
-      <c r="AC12" s="38"/>
-      <c r="AD12" s="38"/>
-      <c r="AE12" s="38"/>
-      <c r="AF12" s="38"/>
-      <c r="AG12" s="38"/>
-      <c r="AH12" s="38"/>
-      <c r="AI12" s="38"/>
-      <c r="AJ12" s="38"/>
-      <c r="AK12" s="38"/>
-      <c r="AL12" s="38"/>
-      <c r="AM12" s="39"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="66"/>
+      <c r="V12" s="66"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="66"/>
+      <c r="Z12" s="66"/>
+      <c r="AA12" s="66"/>
+      <c r="AB12" s="66"/>
+      <c r="AC12" s="66"/>
+      <c r="AD12" s="66"/>
+      <c r="AE12" s="66"/>
+      <c r="AF12" s="66"/>
+      <c r="AG12" s="66"/>
+      <c r="AH12" s="66"/>
+      <c r="AI12" s="66"/>
+      <c r="AJ12" s="66"/>
+      <c r="AK12" s="66"/>
+      <c r="AL12" s="66"/>
+      <c r="AM12" s="67"/>
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
@@ -2862,32 +2693,32 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
-      <c r="W13" s="38"/>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="38"/>
-      <c r="AB13" s="38"/>
-      <c r="AC13" s="38"/>
-      <c r="AD13" s="38"/>
-      <c r="AE13" s="38"/>
-      <c r="AF13" s="38"/>
-      <c r="AG13" s="38"/>
-      <c r="AH13" s="38"/>
-      <c r="AI13" s="38"/>
-      <c r="AJ13" s="38"/>
-      <c r="AK13" s="38"/>
-      <c r="AL13" s="38"/>
-      <c r="AM13" s="39"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="66"/>
+      <c r="V13" s="66"/>
+      <c r="W13" s="66"/>
+      <c r="X13" s="66"/>
+      <c r="Y13" s="66"/>
+      <c r="Z13" s="66"/>
+      <c r="AA13" s="66"/>
+      <c r="AB13" s="66"/>
+      <c r="AC13" s="66"/>
+      <c r="AD13" s="66"/>
+      <c r="AE13" s="66"/>
+      <c r="AF13" s="66"/>
+      <c r="AG13" s="66"/>
+      <c r="AH13" s="66"/>
+      <c r="AI13" s="66"/>
+      <c r="AJ13" s="66"/>
+      <c r="AK13" s="66"/>
+      <c r="AL13" s="66"/>
+      <c r="AM13" s="67"/>
       <c r="AN13" s="2"/>
       <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
@@ -2922,32 +2753,32 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="38"/>
-      <c r="AA14" s="38"/>
-      <c r="AB14" s="38"/>
-      <c r="AC14" s="38"/>
-      <c r="AD14" s="38"/>
-      <c r="AE14" s="38"/>
-      <c r="AF14" s="38"/>
-      <c r="AG14" s="38"/>
-      <c r="AH14" s="38"/>
-      <c r="AI14" s="38"/>
-      <c r="AJ14" s="38"/>
-      <c r="AK14" s="38"/>
-      <c r="AL14" s="38"/>
-      <c r="AM14" s="39"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="66"/>
+      <c r="V14" s="66"/>
+      <c r="W14" s="66"/>
+      <c r="X14" s="66"/>
+      <c r="Y14" s="66"/>
+      <c r="Z14" s="66"/>
+      <c r="AA14" s="66"/>
+      <c r="AB14" s="66"/>
+      <c r="AC14" s="66"/>
+      <c r="AD14" s="66"/>
+      <c r="AE14" s="66"/>
+      <c r="AF14" s="66"/>
+      <c r="AG14" s="66"/>
+      <c r="AH14" s="66"/>
+      <c r="AI14" s="66"/>
+      <c r="AJ14" s="66"/>
+      <c r="AK14" s="66"/>
+      <c r="AL14" s="66"/>
+      <c r="AM14" s="67"/>
       <c r="AN14" s="2"/>
       <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
@@ -2982,32 +2813,32 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="38"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="38"/>
-      <c r="W15" s="38"/>
-      <c r="X15" s="38"/>
-      <c r="Y15" s="38"/>
-      <c r="Z15" s="38"/>
-      <c r="AA15" s="38"/>
-      <c r="AB15" s="38"/>
-      <c r="AC15" s="38"/>
-      <c r="AD15" s="38"/>
-      <c r="AE15" s="38"/>
-      <c r="AF15" s="38"/>
-      <c r="AG15" s="38"/>
-      <c r="AH15" s="38"/>
-      <c r="AI15" s="38"/>
-      <c r="AJ15" s="38"/>
-      <c r="AK15" s="38"/>
-      <c r="AL15" s="38"/>
-      <c r="AM15" s="39"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="66"/>
+      <c r="T15" s="66"/>
+      <c r="U15" s="66"/>
+      <c r="V15" s="66"/>
+      <c r="W15" s="66"/>
+      <c r="X15" s="66"/>
+      <c r="Y15" s="66"/>
+      <c r="Z15" s="66"/>
+      <c r="AA15" s="66"/>
+      <c r="AB15" s="66"/>
+      <c r="AC15" s="66"/>
+      <c r="AD15" s="66"/>
+      <c r="AE15" s="66"/>
+      <c r="AF15" s="66"/>
+      <c r="AG15" s="66"/>
+      <c r="AH15" s="66"/>
+      <c r="AI15" s="66"/>
+      <c r="AJ15" s="66"/>
+      <c r="AK15" s="66"/>
+      <c r="AL15" s="66"/>
+      <c r="AM15" s="67"/>
       <c r="AN15" s="2"/>
       <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
@@ -3042,32 +2873,32 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
-      <c r="W16" s="38"/>
-      <c r="X16" s="38"/>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="38"/>
-      <c r="AA16" s="38"/>
-      <c r="AB16" s="38"/>
-      <c r="AC16" s="38"/>
-      <c r="AD16" s="38"/>
-      <c r="AE16" s="38"/>
-      <c r="AF16" s="38"/>
-      <c r="AG16" s="38"/>
-      <c r="AH16" s="38"/>
-      <c r="AI16" s="38"/>
-      <c r="AJ16" s="38"/>
-      <c r="AK16" s="38"/>
-      <c r="AL16" s="38"/>
-      <c r="AM16" s="39"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="66"/>
+      <c r="T16" s="66"/>
+      <c r="U16" s="66"/>
+      <c r="V16" s="66"/>
+      <c r="W16" s="66"/>
+      <c r="X16" s="66"/>
+      <c r="Y16" s="66"/>
+      <c r="Z16" s="66"/>
+      <c r="AA16" s="66"/>
+      <c r="AB16" s="66"/>
+      <c r="AC16" s="66"/>
+      <c r="AD16" s="66"/>
+      <c r="AE16" s="66"/>
+      <c r="AF16" s="66"/>
+      <c r="AG16" s="66"/>
+      <c r="AH16" s="66"/>
+      <c r="AI16" s="66"/>
+      <c r="AJ16" s="66"/>
+      <c r="AK16" s="66"/>
+      <c r="AL16" s="66"/>
+      <c r="AM16" s="67"/>
       <c r="AN16" s="2"/>
       <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
@@ -3102,32 +2933,32 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="38"/>
-      <c r="W17" s="38"/>
-      <c r="X17" s="38"/>
-      <c r="Y17" s="38"/>
-      <c r="Z17" s="38"/>
-      <c r="AA17" s="38"/>
-      <c r="AB17" s="38"/>
-      <c r="AC17" s="38"/>
-      <c r="AD17" s="38"/>
-      <c r="AE17" s="38"/>
-      <c r="AF17" s="38"/>
-      <c r="AG17" s="38"/>
-      <c r="AH17" s="38"/>
-      <c r="AI17" s="38"/>
-      <c r="AJ17" s="38"/>
-      <c r="AK17" s="38"/>
-      <c r="AL17" s="38"/>
-      <c r="AM17" s="39"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="66"/>
+      <c r="S17" s="66"/>
+      <c r="T17" s="66"/>
+      <c r="U17" s="66"/>
+      <c r="V17" s="66"/>
+      <c r="W17" s="66"/>
+      <c r="X17" s="66"/>
+      <c r="Y17" s="66"/>
+      <c r="Z17" s="66"/>
+      <c r="AA17" s="66"/>
+      <c r="AB17" s="66"/>
+      <c r="AC17" s="66"/>
+      <c r="AD17" s="66"/>
+      <c r="AE17" s="66"/>
+      <c r="AF17" s="66"/>
+      <c r="AG17" s="66"/>
+      <c r="AH17" s="66"/>
+      <c r="AI17" s="66"/>
+      <c r="AJ17" s="66"/>
+      <c r="AK17" s="66"/>
+      <c r="AL17" s="66"/>
+      <c r="AM17" s="67"/>
       <c r="AN17" s="2"/>
       <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
@@ -3162,32 +2993,32 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="38"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="38"/>
-      <c r="X18" s="38"/>
-      <c r="Y18" s="38"/>
-      <c r="Z18" s="38"/>
-      <c r="AA18" s="38"/>
-      <c r="AB18" s="38"/>
-      <c r="AC18" s="38"/>
-      <c r="AD18" s="38"/>
-      <c r="AE18" s="38"/>
-      <c r="AF18" s="38"/>
-      <c r="AG18" s="38"/>
-      <c r="AH18" s="38"/>
-      <c r="AI18" s="38"/>
-      <c r="AJ18" s="38"/>
-      <c r="AK18" s="38"/>
-      <c r="AL18" s="38"/>
-      <c r="AM18" s="39"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="66"/>
+      <c r="S18" s="66"/>
+      <c r="T18" s="66"/>
+      <c r="U18" s="66"/>
+      <c r="V18" s="66"/>
+      <c r="W18" s="66"/>
+      <c r="X18" s="66"/>
+      <c r="Y18" s="66"/>
+      <c r="Z18" s="66"/>
+      <c r="AA18" s="66"/>
+      <c r="AB18" s="66"/>
+      <c r="AC18" s="66"/>
+      <c r="AD18" s="66"/>
+      <c r="AE18" s="66"/>
+      <c r="AF18" s="66"/>
+      <c r="AG18" s="66"/>
+      <c r="AH18" s="66"/>
+      <c r="AI18" s="66"/>
+      <c r="AJ18" s="66"/>
+      <c r="AK18" s="66"/>
+      <c r="AL18" s="66"/>
+      <c r="AM18" s="67"/>
       <c r="AN18" s="2"/>
       <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
@@ -3222,32 +3053,32 @@
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="38"/>
-      <c r="W19" s="38"/>
-      <c r="X19" s="38"/>
-      <c r="Y19" s="38"/>
-      <c r="Z19" s="38"/>
-      <c r="AA19" s="38"/>
-      <c r="AB19" s="38"/>
-      <c r="AC19" s="38"/>
-      <c r="AD19" s="38"/>
-      <c r="AE19" s="38"/>
-      <c r="AF19" s="38"/>
-      <c r="AG19" s="38"/>
-      <c r="AH19" s="38"/>
-      <c r="AI19" s="38"/>
-      <c r="AJ19" s="38"/>
-      <c r="AK19" s="38"/>
-      <c r="AL19" s="38"/>
-      <c r="AM19" s="39"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="66"/>
+      <c r="R19" s="66"/>
+      <c r="S19" s="66"/>
+      <c r="T19" s="66"/>
+      <c r="U19" s="66"/>
+      <c r="V19" s="66"/>
+      <c r="W19" s="66"/>
+      <c r="X19" s="66"/>
+      <c r="Y19" s="66"/>
+      <c r="Z19" s="66"/>
+      <c r="AA19" s="66"/>
+      <c r="AB19" s="66"/>
+      <c r="AC19" s="66"/>
+      <c r="AD19" s="66"/>
+      <c r="AE19" s="66"/>
+      <c r="AF19" s="66"/>
+      <c r="AG19" s="66"/>
+      <c r="AH19" s="66"/>
+      <c r="AI19" s="66"/>
+      <c r="AJ19" s="66"/>
+      <c r="AK19" s="66"/>
+      <c r="AL19" s="66"/>
+      <c r="AM19" s="67"/>
       <c r="AN19" s="2"/>
       <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
@@ -3282,32 +3113,32 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="38"/>
-      <c r="W20" s="38"/>
-      <c r="X20" s="38"/>
-      <c r="Y20" s="38"/>
-      <c r="Z20" s="38"/>
-      <c r="AA20" s="38"/>
-      <c r="AB20" s="38"/>
-      <c r="AC20" s="38"/>
-      <c r="AD20" s="38"/>
-      <c r="AE20" s="38"/>
-      <c r="AF20" s="38"/>
-      <c r="AG20" s="38"/>
-      <c r="AH20" s="38"/>
-      <c r="AI20" s="38"/>
-      <c r="AJ20" s="38"/>
-      <c r="AK20" s="38"/>
-      <c r="AL20" s="38"/>
-      <c r="AM20" s="39"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="66"/>
+      <c r="S20" s="66"/>
+      <c r="T20" s="66"/>
+      <c r="U20" s="66"/>
+      <c r="V20" s="66"/>
+      <c r="W20" s="66"/>
+      <c r="X20" s="66"/>
+      <c r="Y20" s="66"/>
+      <c r="Z20" s="66"/>
+      <c r="AA20" s="66"/>
+      <c r="AB20" s="66"/>
+      <c r="AC20" s="66"/>
+      <c r="AD20" s="66"/>
+      <c r="AE20" s="66"/>
+      <c r="AF20" s="66"/>
+      <c r="AG20" s="66"/>
+      <c r="AH20" s="66"/>
+      <c r="AI20" s="66"/>
+      <c r="AJ20" s="66"/>
+      <c r="AK20" s="66"/>
+      <c r="AL20" s="66"/>
+      <c r="AM20" s="67"/>
       <c r="AN20" s="2"/>
       <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
@@ -3342,32 +3173,32 @@
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="41"/>
-      <c r="V21" s="41"/>
-      <c r="W21" s="41"/>
-      <c r="X21" s="41"/>
-      <c r="Y21" s="41"/>
-      <c r="Z21" s="41"/>
-      <c r="AA21" s="41"/>
-      <c r="AB21" s="41"/>
-      <c r="AC21" s="41"/>
-      <c r="AD21" s="41"/>
-      <c r="AE21" s="41"/>
-      <c r="AF21" s="41"/>
-      <c r="AG21" s="41"/>
-      <c r="AH21" s="41"/>
-      <c r="AI21" s="41"/>
-      <c r="AJ21" s="41"/>
-      <c r="AK21" s="41"/>
-      <c r="AL21" s="41"/>
-      <c r="AM21" s="42"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="69"/>
+      <c r="Q21" s="69"/>
+      <c r="R21" s="69"/>
+      <c r="S21" s="69"/>
+      <c r="T21" s="69"/>
+      <c r="U21" s="69"/>
+      <c r="V21" s="69"/>
+      <c r="W21" s="69"/>
+      <c r="X21" s="69"/>
+      <c r="Y21" s="69"/>
+      <c r="Z21" s="69"/>
+      <c r="AA21" s="69"/>
+      <c r="AB21" s="69"/>
+      <c r="AC21" s="69"/>
+      <c r="AD21" s="69"/>
+      <c r="AE21" s="69"/>
+      <c r="AF21" s="69"/>
+      <c r="AG21" s="69"/>
+      <c r="AH21" s="69"/>
+      <c r="AI21" s="69"/>
+      <c r="AJ21" s="69"/>
+      <c r="AK21" s="69"/>
+      <c r="AL21" s="69"/>
+      <c r="AM21" s="70"/>
       <c r="AN21" s="2"/>
       <c r="AO21" s="2"/>
       <c r="AP21" s="2"/>
@@ -4138,27 +3969,27 @@
       <c r="AF37" s="2"/>
       <c r="AG37" s="2"/>
       <c r="AH37" s="2"/>
-      <c r="AI37" s="43" t="s">
+      <c r="AI37" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="AJ37" s="43"/>
-      <c r="AK37" s="43"/>
-      <c r="AL37" s="43"/>
-      <c r="AM37" s="43"/>
-      <c r="AN37" s="45">
+      <c r="AJ37" s="71"/>
+      <c r="AK37" s="71"/>
+      <c r="AL37" s="71"/>
+      <c r="AM37" s="71"/>
+      <c r="AN37" s="73">
         <v>43881</v>
       </c>
-      <c r="AO37" s="45"/>
-      <c r="AP37" s="45"/>
-      <c r="AQ37" s="45"/>
-      <c r="AR37" s="45"/>
-      <c r="AS37" s="45"/>
-      <c r="AT37" s="45"/>
-      <c r="AU37" s="45"/>
-      <c r="AV37" s="45"/>
-      <c r="AW37" s="45"/>
-      <c r="AX37" s="45"/>
-      <c r="AY37" s="45"/>
+      <c r="AO37" s="73"/>
+      <c r="AP37" s="73"/>
+      <c r="AQ37" s="73"/>
+      <c r="AR37" s="73"/>
+      <c r="AS37" s="73"/>
+      <c r="AT37" s="73"/>
+      <c r="AU37" s="73"/>
+      <c r="AV37" s="73"/>
+      <c r="AW37" s="73"/>
+      <c r="AX37" s="73"/>
+      <c r="AY37" s="73"/>
       <c r="AZ37" s="2"/>
       <c r="BA37" s="2"/>
       <c r="BB37" s="2"/>
@@ -4194,23 +4025,23 @@
       <c r="AF38" s="2"/>
       <c r="AG38" s="2"/>
       <c r="AH38" s="2"/>
-      <c r="AI38" s="44"/>
-      <c r="AJ38" s="44"/>
-      <c r="AK38" s="44"/>
-      <c r="AL38" s="44"/>
-      <c r="AM38" s="44"/>
-      <c r="AN38" s="46"/>
-      <c r="AO38" s="46"/>
-      <c r="AP38" s="46"/>
-      <c r="AQ38" s="46"/>
-      <c r="AR38" s="46"/>
-      <c r="AS38" s="46"/>
-      <c r="AT38" s="46"/>
-      <c r="AU38" s="46"/>
-      <c r="AV38" s="46"/>
-      <c r="AW38" s="46"/>
-      <c r="AX38" s="46"/>
-      <c r="AY38" s="46"/>
+      <c r="AI38" s="72"/>
+      <c r="AJ38" s="72"/>
+      <c r="AK38" s="72"/>
+      <c r="AL38" s="72"/>
+      <c r="AM38" s="72"/>
+      <c r="AN38" s="74"/>
+      <c r="AO38" s="74"/>
+      <c r="AP38" s="74"/>
+      <c r="AQ38" s="74"/>
+      <c r="AR38" s="74"/>
+      <c r="AS38" s="74"/>
+      <c r="AT38" s="74"/>
+      <c r="AU38" s="74"/>
+      <c r="AV38" s="74"/>
+      <c r="AW38" s="74"/>
+      <c r="AX38" s="74"/>
+      <c r="AY38" s="74"/>
       <c r="AZ38" s="2"/>
       <c r="BA38" s="2"/>
       <c r="BB38" s="2"/>
@@ -4246,27 +4077,27 @@
       <c r="AF39" s="2"/>
       <c r="AG39" s="2"/>
       <c r="AH39" s="2"/>
-      <c r="AI39" s="44" t="s">
+      <c r="AI39" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="AJ39" s="44"/>
-      <c r="AK39" s="44"/>
-      <c r="AL39" s="44"/>
-      <c r="AM39" s="44"/>
-      <c r="AN39" s="47" t="s">
+      <c r="AJ39" s="72"/>
+      <c r="AK39" s="72"/>
+      <c r="AL39" s="72"/>
+      <c r="AM39" s="72"/>
+      <c r="AN39" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="AO39" s="48"/>
-      <c r="AP39" s="48"/>
-      <c r="AQ39" s="48"/>
-      <c r="AR39" s="48"/>
-      <c r="AS39" s="48"/>
-      <c r="AT39" s="48"/>
-      <c r="AU39" s="48"/>
-      <c r="AV39" s="48"/>
-      <c r="AW39" s="48"/>
-      <c r="AX39" s="48"/>
-      <c r="AY39" s="48"/>
+      <c r="AO39" s="76"/>
+      <c r="AP39" s="76"/>
+      <c r="AQ39" s="76"/>
+      <c r="AR39" s="76"/>
+      <c r="AS39" s="76"/>
+      <c r="AT39" s="76"/>
+      <c r="AU39" s="76"/>
+      <c r="AV39" s="76"/>
+      <c r="AW39" s="76"/>
+      <c r="AX39" s="76"/>
+      <c r="AY39" s="76"/>
       <c r="AZ39" s="2"/>
       <c r="BA39" s="2"/>
       <c r="BB39" s="2"/>
@@ -4302,23 +4133,23 @@
       <c r="AF40" s="2"/>
       <c r="AG40" s="2"/>
       <c r="AH40" s="2"/>
-      <c r="AI40" s="44"/>
-      <c r="AJ40" s="44"/>
-      <c r="AK40" s="44"/>
-      <c r="AL40" s="44"/>
-      <c r="AM40" s="44"/>
-      <c r="AN40" s="48"/>
-      <c r="AO40" s="48"/>
-      <c r="AP40" s="48"/>
-      <c r="AQ40" s="48"/>
-      <c r="AR40" s="48"/>
-      <c r="AS40" s="48"/>
-      <c r="AT40" s="48"/>
-      <c r="AU40" s="48"/>
-      <c r="AV40" s="48"/>
-      <c r="AW40" s="48"/>
-      <c r="AX40" s="48"/>
-      <c r="AY40" s="48"/>
+      <c r="AI40" s="72"/>
+      <c r="AJ40" s="72"/>
+      <c r="AK40" s="72"/>
+      <c r="AL40" s="72"/>
+      <c r="AM40" s="72"/>
+      <c r="AN40" s="76"/>
+      <c r="AO40" s="76"/>
+      <c r="AP40" s="76"/>
+      <c r="AQ40" s="76"/>
+      <c r="AR40" s="76"/>
+      <c r="AS40" s="76"/>
+      <c r="AT40" s="76"/>
+      <c r="AU40" s="76"/>
+      <c r="AV40" s="76"/>
+      <c r="AW40" s="76"/>
+      <c r="AX40" s="76"/>
+      <c r="AY40" s="76"/>
       <c r="AZ40" s="2"/>
       <c r="BA40" s="2"/>
       <c r="BB40" s="2"/>
@@ -4367,114 +4198,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="53"/>
-      <c r="AO1" s="53"/>
-      <c r="AP1" s="53"/>
-      <c r="AQ1" s="53"/>
-      <c r="AR1" s="53"/>
-      <c r="AS1" s="53"/>
-      <c r="AT1" s="53"/>
-      <c r="AU1" s="53"/>
-      <c r="AV1" s="53"/>
-      <c r="AW1" s="53"/>
-      <c r="AX1" s="53"/>
-      <c r="AY1" s="53"/>
-      <c r="AZ1" s="54"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="78"/>
+      <c r="Y1" s="78"/>
+      <c r="Z1" s="78"/>
+      <c r="AA1" s="78"/>
+      <c r="AB1" s="78"/>
+      <c r="AC1" s="78"/>
+      <c r="AD1" s="78"/>
+      <c r="AE1" s="78"/>
+      <c r="AF1" s="78"/>
+      <c r="AG1" s="78"/>
+      <c r="AH1" s="78"/>
+      <c r="AI1" s="78"/>
+      <c r="AJ1" s="78"/>
+      <c r="AK1" s="78"/>
+      <c r="AL1" s="78"/>
+      <c r="AM1" s="78"/>
+      <c r="AN1" s="78"/>
+      <c r="AO1" s="78"/>
+      <c r="AP1" s="78"/>
+      <c r="AQ1" s="78"/>
+      <c r="AR1" s="78"/>
+      <c r="AS1" s="78"/>
+      <c r="AT1" s="78"/>
+      <c r="AU1" s="78"/>
+      <c r="AV1" s="78"/>
+      <c r="AW1" s="78"/>
+      <c r="AX1" s="78"/>
+      <c r="AY1" s="78"/>
+      <c r="AZ1" s="79"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="56"/>
-      <c r="AO2" s="56"/>
-      <c r="AP2" s="56"/>
-      <c r="AQ2" s="56"/>
-      <c r="AR2" s="56"/>
-      <c r="AS2" s="56"/>
-      <c r="AT2" s="56"/>
-      <c r="AU2" s="56"/>
-      <c r="AV2" s="56"/>
-      <c r="AW2" s="56"/>
-      <c r="AX2" s="56"/>
-      <c r="AY2" s="56"/>
-      <c r="AZ2" s="57"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
+      <c r="W2" s="81"/>
+      <c r="X2" s="81"/>
+      <c r="Y2" s="81"/>
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="81"/>
+      <c r="AB2" s="81"/>
+      <c r="AC2" s="81"/>
+      <c r="AD2" s="81"/>
+      <c r="AE2" s="81"/>
+      <c r="AF2" s="81"/>
+      <c r="AG2" s="81"/>
+      <c r="AH2" s="81"/>
+      <c r="AI2" s="81"/>
+      <c r="AJ2" s="81"/>
+      <c r="AK2" s="81"/>
+      <c r="AL2" s="81"/>
+      <c r="AM2" s="81"/>
+      <c r="AN2" s="81"/>
+      <c r="AO2" s="81"/>
+      <c r="AP2" s="81"/>
+      <c r="AQ2" s="81"/>
+      <c r="AR2" s="81"/>
+      <c r="AS2" s="81"/>
+      <c r="AT2" s="81"/>
+      <c r="AU2" s="81"/>
+      <c r="AV2" s="81"/>
+      <c r="AW2" s="81"/>
+      <c r="AX2" s="81"/>
+      <c r="AY2" s="81"/>
+      <c r="AZ2" s="82"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
@@ -4531,2111 +4362,1960 @@
       <c r="AZ3" s="6"/>
     </row>
     <row r="4" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="58" t="s">
+      <c r="B4" s="84"/>
+      <c r="C4" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="58" t="s">
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="58" t="s">
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="58" t="s">
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="84"/>
+      <c r="U4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="60"/>
-      <c r="W4" s="60"/>
-      <c r="X4" s="60"/>
-      <c r="Y4" s="60"/>
-      <c r="Z4" s="60"/>
-      <c r="AA4" s="60"/>
-      <c r="AB4" s="60"/>
-      <c r="AC4" s="60"/>
-      <c r="AD4" s="60"/>
-      <c r="AE4" s="60"/>
-      <c r="AF4" s="60"/>
-      <c r="AG4" s="60"/>
-      <c r="AH4" s="60"/>
-      <c r="AI4" s="60"/>
-      <c r="AJ4" s="60"/>
-      <c r="AK4" s="60"/>
-      <c r="AL4" s="60"/>
-      <c r="AM4" s="60"/>
-      <c r="AN4" s="60"/>
-      <c r="AO4" s="60"/>
-      <c r="AP4" s="60"/>
-      <c r="AQ4" s="60"/>
-      <c r="AR4" s="60"/>
-      <c r="AS4" s="60"/>
-      <c r="AT4" s="60"/>
-      <c r="AU4" s="60"/>
-      <c r="AV4" s="60"/>
-      <c r="AW4" s="60"/>
-      <c r="AX4" s="60"/>
-      <c r="AY4" s="60"/>
-      <c r="AZ4" s="59"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="85"/>
+      <c r="Y4" s="85"/>
+      <c r="Z4" s="85"/>
+      <c r="AA4" s="85"/>
+      <c r="AB4" s="85"/>
+      <c r="AC4" s="85"/>
+      <c r="AD4" s="85"/>
+      <c r="AE4" s="85"/>
+      <c r="AF4" s="85"/>
+      <c r="AG4" s="85"/>
+      <c r="AH4" s="85"/>
+      <c r="AI4" s="85"/>
+      <c r="AJ4" s="85"/>
+      <c r="AK4" s="85"/>
+      <c r="AL4" s="85"/>
+      <c r="AM4" s="85"/>
+      <c r="AN4" s="85"/>
+      <c r="AO4" s="85"/>
+      <c r="AP4" s="85"/>
+      <c r="AQ4" s="85"/>
+      <c r="AR4" s="85"/>
+      <c r="AS4" s="85"/>
+      <c r="AT4" s="85"/>
+      <c r="AU4" s="85"/>
+      <c r="AV4" s="85"/>
+      <c r="AW4" s="85"/>
+      <c r="AX4" s="85"/>
+      <c r="AY4" s="85"/>
+      <c r="AZ4" s="84"/>
     </row>
     <row r="5" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="49">
+      <c r="A5" s="86">
         <f t="shared" ref="A5:A37" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50">
+      <c r="B5" s="86"/>
+      <c r="C5" s="87">
         <v>44006</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="51" t="s">
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="49" t="s">
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="49" t="s">
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="86"/>
+      <c r="T5" s="86"/>
+      <c r="U5" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="V5" s="49"/>
-      <c r="W5" s="49"/>
-      <c r="X5" s="49"/>
-      <c r="Y5" s="49"/>
-      <c r="Z5" s="49"/>
-      <c r="AA5" s="49"/>
-      <c r="AB5" s="49"/>
-      <c r="AC5" s="49"/>
-      <c r="AD5" s="49"/>
-      <c r="AE5" s="49"/>
-      <c r="AF5" s="49"/>
-      <c r="AG5" s="49"/>
-      <c r="AH5" s="49"/>
-      <c r="AI5" s="49"/>
-      <c r="AJ5" s="49"/>
-      <c r="AK5" s="49"/>
-      <c r="AL5" s="49"/>
-      <c r="AM5" s="49"/>
-      <c r="AN5" s="49"/>
-      <c r="AO5" s="49"/>
-      <c r="AP5" s="49"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="49"/>
-      <c r="AS5" s="49"/>
-      <c r="AT5" s="49"/>
-      <c r="AU5" s="49"/>
-      <c r="AV5" s="49"/>
-      <c r="AW5" s="49"/>
-      <c r="AX5" s="49"/>
-      <c r="AY5" s="49"/>
-      <c r="AZ5" s="49"/>
+      <c r="V5" s="86"/>
+      <c r="W5" s="86"/>
+      <c r="X5" s="86"/>
+      <c r="Y5" s="86"/>
+      <c r="Z5" s="86"/>
+      <c r="AA5" s="86"/>
+      <c r="AB5" s="86"/>
+      <c r="AC5" s="86"/>
+      <c r="AD5" s="86"/>
+      <c r="AE5" s="86"/>
+      <c r="AF5" s="86"/>
+      <c r="AG5" s="86"/>
+      <c r="AH5" s="86"/>
+      <c r="AI5" s="86"/>
+      <c r="AJ5" s="86"/>
+      <c r="AK5" s="86"/>
+      <c r="AL5" s="86"/>
+      <c r="AM5" s="86"/>
+      <c r="AN5" s="86"/>
+      <c r="AO5" s="86"/>
+      <c r="AP5" s="86"/>
+      <c r="AQ5" s="86"/>
+      <c r="AR5" s="86"/>
+      <c r="AS5" s="86"/>
+      <c r="AT5" s="86"/>
+      <c r="AU5" s="86"/>
+      <c r="AV5" s="86"/>
+      <c r="AW5" s="86"/>
+      <c r="AX5" s="86"/>
+      <c r="AY5" s="86"/>
+      <c r="AZ5" s="86"/>
     </row>
     <row r="6" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="49">
+      <c r="A6" s="86">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="49"/>
-      <c r="Y6" s="49"/>
-      <c r="Z6" s="49"/>
-      <c r="AA6" s="49"/>
-      <c r="AB6" s="49"/>
-      <c r="AC6" s="49"/>
-      <c r="AD6" s="49"/>
-      <c r="AE6" s="49"/>
-      <c r="AF6" s="49"/>
-      <c r="AG6" s="49"/>
-      <c r="AH6" s="49"/>
-      <c r="AI6" s="49"/>
-      <c r="AJ6" s="49"/>
-      <c r="AK6" s="49"/>
-      <c r="AL6" s="49"/>
-      <c r="AM6" s="49"/>
-      <c r="AN6" s="49"/>
-      <c r="AO6" s="49"/>
-      <c r="AP6" s="49"/>
-      <c r="AQ6" s="49"/>
-      <c r="AR6" s="49"/>
-      <c r="AS6" s="49"/>
-      <c r="AT6" s="49"/>
-      <c r="AU6" s="49"/>
-      <c r="AV6" s="49"/>
-      <c r="AW6" s="49"/>
-      <c r="AX6" s="49"/>
-      <c r="AY6" s="49"/>
-      <c r="AZ6" s="49"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="86"/>
+      <c r="Q6" s="86"/>
+      <c r="R6" s="86"/>
+      <c r="S6" s="86"/>
+      <c r="T6" s="86"/>
+      <c r="U6" s="86"/>
+      <c r="V6" s="86"/>
+      <c r="W6" s="86"/>
+      <c r="X6" s="86"/>
+      <c r="Y6" s="86"/>
+      <c r="Z6" s="86"/>
+      <c r="AA6" s="86"/>
+      <c r="AB6" s="86"/>
+      <c r="AC6" s="86"/>
+      <c r="AD6" s="86"/>
+      <c r="AE6" s="86"/>
+      <c r="AF6" s="86"/>
+      <c r="AG6" s="86"/>
+      <c r="AH6" s="86"/>
+      <c r="AI6" s="86"/>
+      <c r="AJ6" s="86"/>
+      <c r="AK6" s="86"/>
+      <c r="AL6" s="86"/>
+      <c r="AM6" s="86"/>
+      <c r="AN6" s="86"/>
+      <c r="AO6" s="86"/>
+      <c r="AP6" s="86"/>
+      <c r="AQ6" s="86"/>
+      <c r="AR6" s="86"/>
+      <c r="AS6" s="86"/>
+      <c r="AT6" s="86"/>
+      <c r="AU6" s="86"/>
+      <c r="AV6" s="86"/>
+      <c r="AW6" s="86"/>
+      <c r="AX6" s="86"/>
+      <c r="AY6" s="86"/>
+      <c r="AZ6" s="86"/>
     </row>
     <row r="7" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="49">
+      <c r="A7" s="86">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="49"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="49"/>
-      <c r="Z7" s="49"/>
-      <c r="AA7" s="49"/>
-      <c r="AB7" s="49"/>
-      <c r="AC7" s="49"/>
-      <c r="AD7" s="49"/>
-      <c r="AE7" s="49"/>
-      <c r="AF7" s="49"/>
-      <c r="AG7" s="49"/>
-      <c r="AH7" s="49"/>
-      <c r="AI7" s="49"/>
-      <c r="AJ7" s="49"/>
-      <c r="AK7" s="49"/>
-      <c r="AL7" s="49"/>
-      <c r="AM7" s="49"/>
-      <c r="AN7" s="49"/>
-      <c r="AO7" s="49"/>
-      <c r="AP7" s="49"/>
-      <c r="AQ7" s="49"/>
-      <c r="AR7" s="49"/>
-      <c r="AS7" s="49"/>
-      <c r="AT7" s="49"/>
-      <c r="AU7" s="49"/>
-      <c r="AV7" s="49"/>
-      <c r="AW7" s="49"/>
-      <c r="AX7" s="49"/>
-      <c r="AY7" s="49"/>
-      <c r="AZ7" s="49"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="86"/>
+      <c r="Q7" s="86"/>
+      <c r="R7" s="86"/>
+      <c r="S7" s="86"/>
+      <c r="T7" s="86"/>
+      <c r="U7" s="86"/>
+      <c r="V7" s="86"/>
+      <c r="W7" s="86"/>
+      <c r="X7" s="86"/>
+      <c r="Y7" s="86"/>
+      <c r="Z7" s="86"/>
+      <c r="AA7" s="86"/>
+      <c r="AB7" s="86"/>
+      <c r="AC7" s="86"/>
+      <c r="AD7" s="86"/>
+      <c r="AE7" s="86"/>
+      <c r="AF7" s="86"/>
+      <c r="AG7" s="86"/>
+      <c r="AH7" s="86"/>
+      <c r="AI7" s="86"/>
+      <c r="AJ7" s="86"/>
+      <c r="AK7" s="86"/>
+      <c r="AL7" s="86"/>
+      <c r="AM7" s="86"/>
+      <c r="AN7" s="86"/>
+      <c r="AO7" s="86"/>
+      <c r="AP7" s="86"/>
+      <c r="AQ7" s="86"/>
+      <c r="AR7" s="86"/>
+      <c r="AS7" s="86"/>
+      <c r="AT7" s="86"/>
+      <c r="AU7" s="86"/>
+      <c r="AV7" s="86"/>
+      <c r="AW7" s="86"/>
+      <c r="AX7" s="86"/>
+      <c r="AY7" s="86"/>
+      <c r="AZ7" s="86"/>
     </row>
     <row r="8" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="49">
+      <c r="A8" s="86">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="49"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="49"/>
-      <c r="Z8" s="49"/>
-      <c r="AA8" s="49"/>
-      <c r="AB8" s="49"/>
-      <c r="AC8" s="49"/>
-      <c r="AD8" s="49"/>
-      <c r="AE8" s="49"/>
-      <c r="AF8" s="49"/>
-      <c r="AG8" s="49"/>
-      <c r="AH8" s="49"/>
-      <c r="AI8" s="49"/>
-      <c r="AJ8" s="49"/>
-      <c r="AK8" s="49"/>
-      <c r="AL8" s="49"/>
-      <c r="AM8" s="49"/>
-      <c r="AN8" s="49"/>
-      <c r="AO8" s="49"/>
-      <c r="AP8" s="49"/>
-      <c r="AQ8" s="49"/>
-      <c r="AR8" s="49"/>
-      <c r="AS8" s="49"/>
-      <c r="AT8" s="49"/>
-      <c r="AU8" s="49"/>
-      <c r="AV8" s="49"/>
-      <c r="AW8" s="49"/>
-      <c r="AX8" s="49"/>
-      <c r="AY8" s="49"/>
-      <c r="AZ8" s="49"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="86"/>
+      <c r="Q8" s="86"/>
+      <c r="R8" s="86"/>
+      <c r="S8" s="86"/>
+      <c r="T8" s="86"/>
+      <c r="U8" s="86"/>
+      <c r="V8" s="86"/>
+      <c r="W8" s="86"/>
+      <c r="X8" s="86"/>
+      <c r="Y8" s="86"/>
+      <c r="Z8" s="86"/>
+      <c r="AA8" s="86"/>
+      <c r="AB8" s="86"/>
+      <c r="AC8" s="86"/>
+      <c r="AD8" s="86"/>
+      <c r="AE8" s="86"/>
+      <c r="AF8" s="86"/>
+      <c r="AG8" s="86"/>
+      <c r="AH8" s="86"/>
+      <c r="AI8" s="86"/>
+      <c r="AJ8" s="86"/>
+      <c r="AK8" s="86"/>
+      <c r="AL8" s="86"/>
+      <c r="AM8" s="86"/>
+      <c r="AN8" s="86"/>
+      <c r="AO8" s="86"/>
+      <c r="AP8" s="86"/>
+      <c r="AQ8" s="86"/>
+      <c r="AR8" s="86"/>
+      <c r="AS8" s="86"/>
+      <c r="AT8" s="86"/>
+      <c r="AU8" s="86"/>
+      <c r="AV8" s="86"/>
+      <c r="AW8" s="86"/>
+      <c r="AX8" s="86"/>
+      <c r="AY8" s="86"/>
+      <c r="AZ8" s="86"/>
     </row>
     <row r="9" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="49">
+      <c r="A9" s="86">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="49"/>
-      <c r="U9" s="49"/>
-      <c r="V9" s="49"/>
-      <c r="W9" s="49"/>
-      <c r="X9" s="49"/>
-      <c r="Y9" s="49"/>
-      <c r="Z9" s="49"/>
-      <c r="AA9" s="49"/>
-      <c r="AB9" s="49"/>
-      <c r="AC9" s="49"/>
-      <c r="AD9" s="49"/>
-      <c r="AE9" s="49"/>
-      <c r="AF9" s="49"/>
-      <c r="AG9" s="49"/>
-      <c r="AH9" s="49"/>
-      <c r="AI9" s="49"/>
-      <c r="AJ9" s="49"/>
-      <c r="AK9" s="49"/>
-      <c r="AL9" s="49"/>
-      <c r="AM9" s="49"/>
-      <c r="AN9" s="49"/>
-      <c r="AO9" s="49"/>
-      <c r="AP9" s="49"/>
-      <c r="AQ9" s="49"/>
-      <c r="AR9" s="49"/>
-      <c r="AS9" s="49"/>
-      <c r="AT9" s="49"/>
-      <c r="AU9" s="49"/>
-      <c r="AV9" s="49"/>
-      <c r="AW9" s="49"/>
-      <c r="AX9" s="49"/>
-      <c r="AY9" s="49"/>
-      <c r="AZ9" s="49"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="86"/>
+      <c r="P9" s="86"/>
+      <c r="Q9" s="86"/>
+      <c r="R9" s="86"/>
+      <c r="S9" s="86"/>
+      <c r="T9" s="86"/>
+      <c r="U9" s="86"/>
+      <c r="V9" s="86"/>
+      <c r="W9" s="86"/>
+      <c r="X9" s="86"/>
+      <c r="Y9" s="86"/>
+      <c r="Z9" s="86"/>
+      <c r="AA9" s="86"/>
+      <c r="AB9" s="86"/>
+      <c r="AC9" s="86"/>
+      <c r="AD9" s="86"/>
+      <c r="AE9" s="86"/>
+      <c r="AF9" s="86"/>
+      <c r="AG9" s="86"/>
+      <c r="AH9" s="86"/>
+      <c r="AI9" s="86"/>
+      <c r="AJ9" s="86"/>
+      <c r="AK9" s="86"/>
+      <c r="AL9" s="86"/>
+      <c r="AM9" s="86"/>
+      <c r="AN9" s="86"/>
+      <c r="AO9" s="86"/>
+      <c r="AP9" s="86"/>
+      <c r="AQ9" s="86"/>
+      <c r="AR9" s="86"/>
+      <c r="AS9" s="86"/>
+      <c r="AT9" s="86"/>
+      <c r="AU9" s="86"/>
+      <c r="AV9" s="86"/>
+      <c r="AW9" s="86"/>
+      <c r="AX9" s="86"/>
+      <c r="AY9" s="86"/>
+      <c r="AZ9" s="86"/>
     </row>
     <row r="10" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="49">
+      <c r="A10" s="86">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="49"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="49"/>
-      <c r="U10" s="49"/>
-      <c r="V10" s="49"/>
-      <c r="W10" s="49"/>
-      <c r="X10" s="49"/>
-      <c r="Y10" s="49"/>
-      <c r="Z10" s="49"/>
-      <c r="AA10" s="49"/>
-      <c r="AB10" s="49"/>
-      <c r="AC10" s="49"/>
-      <c r="AD10" s="49"/>
-      <c r="AE10" s="49"/>
-      <c r="AF10" s="49"/>
-      <c r="AG10" s="49"/>
-      <c r="AH10" s="49"/>
-      <c r="AI10" s="49"/>
-      <c r="AJ10" s="49"/>
-      <c r="AK10" s="49"/>
-      <c r="AL10" s="49"/>
-      <c r="AM10" s="49"/>
-      <c r="AN10" s="49"/>
-      <c r="AO10" s="49"/>
-      <c r="AP10" s="49"/>
-      <c r="AQ10" s="49"/>
-      <c r="AR10" s="49"/>
-      <c r="AS10" s="49"/>
-      <c r="AT10" s="49"/>
-      <c r="AU10" s="49"/>
-      <c r="AV10" s="49"/>
-      <c r="AW10" s="49"/>
-      <c r="AX10" s="49"/>
-      <c r="AY10" s="49"/>
-      <c r="AZ10" s="49"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="86"/>
+      <c r="Q10" s="86"/>
+      <c r="R10" s="86"/>
+      <c r="S10" s="86"/>
+      <c r="T10" s="86"/>
+      <c r="U10" s="86"/>
+      <c r="V10" s="86"/>
+      <c r="W10" s="86"/>
+      <c r="X10" s="86"/>
+      <c r="Y10" s="86"/>
+      <c r="Z10" s="86"/>
+      <c r="AA10" s="86"/>
+      <c r="AB10" s="86"/>
+      <c r="AC10" s="86"/>
+      <c r="AD10" s="86"/>
+      <c r="AE10" s="86"/>
+      <c r="AF10" s="86"/>
+      <c r="AG10" s="86"/>
+      <c r="AH10" s="86"/>
+      <c r="AI10" s="86"/>
+      <c r="AJ10" s="86"/>
+      <c r="AK10" s="86"/>
+      <c r="AL10" s="86"/>
+      <c r="AM10" s="86"/>
+      <c r="AN10" s="86"/>
+      <c r="AO10" s="86"/>
+      <c r="AP10" s="86"/>
+      <c r="AQ10" s="86"/>
+      <c r="AR10" s="86"/>
+      <c r="AS10" s="86"/>
+      <c r="AT10" s="86"/>
+      <c r="AU10" s="86"/>
+      <c r="AV10" s="86"/>
+      <c r="AW10" s="86"/>
+      <c r="AX10" s="86"/>
+      <c r="AY10" s="86"/>
+      <c r="AZ10" s="86"/>
     </row>
     <row r="11" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="49">
+      <c r="A11" s="86">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="49"/>
-      <c r="T11" s="49"/>
-      <c r="U11" s="49"/>
-      <c r="V11" s="49"/>
-      <c r="W11" s="49"/>
-      <c r="X11" s="49"/>
-      <c r="Y11" s="49"/>
-      <c r="Z11" s="49"/>
-      <c r="AA11" s="49"/>
-      <c r="AB11" s="49"/>
-      <c r="AC11" s="49"/>
-      <c r="AD11" s="49"/>
-      <c r="AE11" s="49"/>
-      <c r="AF11" s="49"/>
-      <c r="AG11" s="49"/>
-      <c r="AH11" s="49"/>
-      <c r="AI11" s="49"/>
-      <c r="AJ11" s="49"/>
-      <c r="AK11" s="49"/>
-      <c r="AL11" s="49"/>
-      <c r="AM11" s="49"/>
-      <c r="AN11" s="49"/>
-      <c r="AO11" s="49"/>
-      <c r="AP11" s="49"/>
-      <c r="AQ11" s="49"/>
-      <c r="AR11" s="49"/>
-      <c r="AS11" s="49"/>
-      <c r="AT11" s="49"/>
-      <c r="AU11" s="49"/>
-      <c r="AV11" s="49"/>
-      <c r="AW11" s="49"/>
-      <c r="AX11" s="49"/>
-      <c r="AY11" s="49"/>
-      <c r="AZ11" s="49"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="86"/>
+      <c r="Q11" s="86"/>
+      <c r="R11" s="86"/>
+      <c r="S11" s="86"/>
+      <c r="T11" s="86"/>
+      <c r="U11" s="86"/>
+      <c r="V11" s="86"/>
+      <c r="W11" s="86"/>
+      <c r="X11" s="86"/>
+      <c r="Y11" s="86"/>
+      <c r="Z11" s="86"/>
+      <c r="AA11" s="86"/>
+      <c r="AB11" s="86"/>
+      <c r="AC11" s="86"/>
+      <c r="AD11" s="86"/>
+      <c r="AE11" s="86"/>
+      <c r="AF11" s="86"/>
+      <c r="AG11" s="86"/>
+      <c r="AH11" s="86"/>
+      <c r="AI11" s="86"/>
+      <c r="AJ11" s="86"/>
+      <c r="AK11" s="86"/>
+      <c r="AL11" s="86"/>
+      <c r="AM11" s="86"/>
+      <c r="AN11" s="86"/>
+      <c r="AO11" s="86"/>
+      <c r="AP11" s="86"/>
+      <c r="AQ11" s="86"/>
+      <c r="AR11" s="86"/>
+      <c r="AS11" s="86"/>
+      <c r="AT11" s="86"/>
+      <c r="AU11" s="86"/>
+      <c r="AV11" s="86"/>
+      <c r="AW11" s="86"/>
+      <c r="AX11" s="86"/>
+      <c r="AY11" s="86"/>
+      <c r="AZ11" s="86"/>
     </row>
     <row r="12" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="49">
+      <c r="A12" s="86">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="49"/>
-      <c r="U12" s="49"/>
-      <c r="V12" s="49"/>
-      <c r="W12" s="49"/>
-      <c r="X12" s="49"/>
-      <c r="Y12" s="49"/>
-      <c r="Z12" s="49"/>
-      <c r="AA12" s="49"/>
-      <c r="AB12" s="49"/>
-      <c r="AC12" s="49"/>
-      <c r="AD12" s="49"/>
-      <c r="AE12" s="49"/>
-      <c r="AF12" s="49"/>
-      <c r="AG12" s="49"/>
-      <c r="AH12" s="49"/>
-      <c r="AI12" s="49"/>
-      <c r="AJ12" s="49"/>
-      <c r="AK12" s="49"/>
-      <c r="AL12" s="49"/>
-      <c r="AM12" s="49"/>
-      <c r="AN12" s="49"/>
-      <c r="AO12" s="49"/>
-      <c r="AP12" s="49"/>
-      <c r="AQ12" s="49"/>
-      <c r="AR12" s="49"/>
-      <c r="AS12" s="49"/>
-      <c r="AT12" s="49"/>
-      <c r="AU12" s="49"/>
-      <c r="AV12" s="49"/>
-      <c r="AW12" s="49"/>
-      <c r="AX12" s="49"/>
-      <c r="AY12" s="49"/>
-      <c r="AZ12" s="49"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="86"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="86"/>
+      <c r="Q12" s="86"/>
+      <c r="R12" s="86"/>
+      <c r="S12" s="86"/>
+      <c r="T12" s="86"/>
+      <c r="U12" s="86"/>
+      <c r="V12" s="86"/>
+      <c r="W12" s="86"/>
+      <c r="X12" s="86"/>
+      <c r="Y12" s="86"/>
+      <c r="Z12" s="86"/>
+      <c r="AA12" s="86"/>
+      <c r="AB12" s="86"/>
+      <c r="AC12" s="86"/>
+      <c r="AD12" s="86"/>
+      <c r="AE12" s="86"/>
+      <c r="AF12" s="86"/>
+      <c r="AG12" s="86"/>
+      <c r="AH12" s="86"/>
+      <c r="AI12" s="86"/>
+      <c r="AJ12" s="86"/>
+      <c r="AK12" s="86"/>
+      <c r="AL12" s="86"/>
+      <c r="AM12" s="86"/>
+      <c r="AN12" s="86"/>
+      <c r="AO12" s="86"/>
+      <c r="AP12" s="86"/>
+      <c r="AQ12" s="86"/>
+      <c r="AR12" s="86"/>
+      <c r="AS12" s="86"/>
+      <c r="AT12" s="86"/>
+      <c r="AU12" s="86"/>
+      <c r="AV12" s="86"/>
+      <c r="AW12" s="86"/>
+      <c r="AX12" s="86"/>
+      <c r="AY12" s="86"/>
+      <c r="AZ12" s="86"/>
     </row>
     <row r="13" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="49">
+      <c r="A13" s="86">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="49"/>
-      <c r="U13" s="49"/>
-      <c r="V13" s="49"/>
-      <c r="W13" s="49"/>
-      <c r="X13" s="49"/>
-      <c r="Y13" s="49"/>
-      <c r="Z13" s="49"/>
-      <c r="AA13" s="49"/>
-      <c r="AB13" s="49"/>
-      <c r="AC13" s="49"/>
-      <c r="AD13" s="49"/>
-      <c r="AE13" s="49"/>
-      <c r="AF13" s="49"/>
-      <c r="AG13" s="49"/>
-      <c r="AH13" s="49"/>
-      <c r="AI13" s="49"/>
-      <c r="AJ13" s="49"/>
-      <c r="AK13" s="49"/>
-      <c r="AL13" s="49"/>
-      <c r="AM13" s="49"/>
-      <c r="AN13" s="49"/>
-      <c r="AO13" s="49"/>
-      <c r="AP13" s="49"/>
-      <c r="AQ13" s="49"/>
-      <c r="AR13" s="49"/>
-      <c r="AS13" s="49"/>
-      <c r="AT13" s="49"/>
-      <c r="AU13" s="49"/>
-      <c r="AV13" s="49"/>
-      <c r="AW13" s="49"/>
-      <c r="AX13" s="49"/>
-      <c r="AY13" s="49"/>
-      <c r="AZ13" s="49"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="86"/>
+      <c r="N13" s="86"/>
+      <c r="O13" s="86"/>
+      <c r="P13" s="86"/>
+      <c r="Q13" s="86"/>
+      <c r="R13" s="86"/>
+      <c r="S13" s="86"/>
+      <c r="T13" s="86"/>
+      <c r="U13" s="86"/>
+      <c r="V13" s="86"/>
+      <c r="W13" s="86"/>
+      <c r="X13" s="86"/>
+      <c r="Y13" s="86"/>
+      <c r="Z13" s="86"/>
+      <c r="AA13" s="86"/>
+      <c r="AB13" s="86"/>
+      <c r="AC13" s="86"/>
+      <c r="AD13" s="86"/>
+      <c r="AE13" s="86"/>
+      <c r="AF13" s="86"/>
+      <c r="AG13" s="86"/>
+      <c r="AH13" s="86"/>
+      <c r="AI13" s="86"/>
+      <c r="AJ13" s="86"/>
+      <c r="AK13" s="86"/>
+      <c r="AL13" s="86"/>
+      <c r="AM13" s="86"/>
+      <c r="AN13" s="86"/>
+      <c r="AO13" s="86"/>
+      <c r="AP13" s="86"/>
+      <c r="AQ13" s="86"/>
+      <c r="AR13" s="86"/>
+      <c r="AS13" s="86"/>
+      <c r="AT13" s="86"/>
+      <c r="AU13" s="86"/>
+      <c r="AV13" s="86"/>
+      <c r="AW13" s="86"/>
+      <c r="AX13" s="86"/>
+      <c r="AY13" s="86"/>
+      <c r="AZ13" s="86"/>
     </row>
     <row r="14" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="49">
+      <c r="A14" s="86">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="49"/>
-      <c r="U14" s="49"/>
-      <c r="V14" s="49"/>
-      <c r="W14" s="49"/>
-      <c r="X14" s="49"/>
-      <c r="Y14" s="49"/>
-      <c r="Z14" s="49"/>
-      <c r="AA14" s="49"/>
-      <c r="AB14" s="49"/>
-      <c r="AC14" s="49"/>
-      <c r="AD14" s="49"/>
-      <c r="AE14" s="49"/>
-      <c r="AF14" s="49"/>
-      <c r="AG14" s="49"/>
-      <c r="AH14" s="49"/>
-      <c r="AI14" s="49"/>
-      <c r="AJ14" s="49"/>
-      <c r="AK14" s="49"/>
-      <c r="AL14" s="49"/>
-      <c r="AM14" s="49"/>
-      <c r="AN14" s="49"/>
-      <c r="AO14" s="49"/>
-      <c r="AP14" s="49"/>
-      <c r="AQ14" s="49"/>
-      <c r="AR14" s="49"/>
-      <c r="AS14" s="49"/>
-      <c r="AT14" s="49"/>
-      <c r="AU14" s="49"/>
-      <c r="AV14" s="49"/>
-      <c r="AW14" s="49"/>
-      <c r="AX14" s="49"/>
-      <c r="AY14" s="49"/>
-      <c r="AZ14" s="49"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="86"/>
+      <c r="R14" s="86"/>
+      <c r="S14" s="86"/>
+      <c r="T14" s="86"/>
+      <c r="U14" s="86"/>
+      <c r="V14" s="86"/>
+      <c r="W14" s="86"/>
+      <c r="X14" s="86"/>
+      <c r="Y14" s="86"/>
+      <c r="Z14" s="86"/>
+      <c r="AA14" s="86"/>
+      <c r="AB14" s="86"/>
+      <c r="AC14" s="86"/>
+      <c r="AD14" s="86"/>
+      <c r="AE14" s="86"/>
+      <c r="AF14" s="86"/>
+      <c r="AG14" s="86"/>
+      <c r="AH14" s="86"/>
+      <c r="AI14" s="86"/>
+      <c r="AJ14" s="86"/>
+      <c r="AK14" s="86"/>
+      <c r="AL14" s="86"/>
+      <c r="AM14" s="86"/>
+      <c r="AN14" s="86"/>
+      <c r="AO14" s="86"/>
+      <c r="AP14" s="86"/>
+      <c r="AQ14" s="86"/>
+      <c r="AR14" s="86"/>
+      <c r="AS14" s="86"/>
+      <c r="AT14" s="86"/>
+      <c r="AU14" s="86"/>
+      <c r="AV14" s="86"/>
+      <c r="AW14" s="86"/>
+      <c r="AX14" s="86"/>
+      <c r="AY14" s="86"/>
+      <c r="AZ14" s="86"/>
     </row>
     <row r="15" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="49">
+      <c r="A15" s="86">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="49"/>
-      <c r="T15" s="49"/>
-      <c r="U15" s="49"/>
-      <c r="V15" s="49"/>
-      <c r="W15" s="49"/>
-      <c r="X15" s="49"/>
-      <c r="Y15" s="49"/>
-      <c r="Z15" s="49"/>
-      <c r="AA15" s="49"/>
-      <c r="AB15" s="49"/>
-      <c r="AC15" s="49"/>
-      <c r="AD15" s="49"/>
-      <c r="AE15" s="49"/>
-      <c r="AF15" s="49"/>
-      <c r="AG15" s="49"/>
-      <c r="AH15" s="49"/>
-      <c r="AI15" s="49"/>
-      <c r="AJ15" s="49"/>
-      <c r="AK15" s="49"/>
-      <c r="AL15" s="49"/>
-      <c r="AM15" s="49"/>
-      <c r="AN15" s="49"/>
-      <c r="AO15" s="49"/>
-      <c r="AP15" s="49"/>
-      <c r="AQ15" s="49"/>
-      <c r="AR15" s="49"/>
-      <c r="AS15" s="49"/>
-      <c r="AT15" s="49"/>
-      <c r="AU15" s="49"/>
-      <c r="AV15" s="49"/>
-      <c r="AW15" s="49"/>
-      <c r="AX15" s="49"/>
-      <c r="AY15" s="49"/>
-      <c r="AZ15" s="49"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="86"/>
+      <c r="Q15" s="86"/>
+      <c r="R15" s="86"/>
+      <c r="S15" s="86"/>
+      <c r="T15" s="86"/>
+      <c r="U15" s="86"/>
+      <c r="V15" s="86"/>
+      <c r="W15" s="86"/>
+      <c r="X15" s="86"/>
+      <c r="Y15" s="86"/>
+      <c r="Z15" s="86"/>
+      <c r="AA15" s="86"/>
+      <c r="AB15" s="86"/>
+      <c r="AC15" s="86"/>
+      <c r="AD15" s="86"/>
+      <c r="AE15" s="86"/>
+      <c r="AF15" s="86"/>
+      <c r="AG15" s="86"/>
+      <c r="AH15" s="86"/>
+      <c r="AI15" s="86"/>
+      <c r="AJ15" s="86"/>
+      <c r="AK15" s="86"/>
+      <c r="AL15" s="86"/>
+      <c r="AM15" s="86"/>
+      <c r="AN15" s="86"/>
+      <c r="AO15" s="86"/>
+      <c r="AP15" s="86"/>
+      <c r="AQ15" s="86"/>
+      <c r="AR15" s="86"/>
+      <c r="AS15" s="86"/>
+      <c r="AT15" s="86"/>
+      <c r="AU15" s="86"/>
+      <c r="AV15" s="86"/>
+      <c r="AW15" s="86"/>
+      <c r="AX15" s="86"/>
+      <c r="AY15" s="86"/>
+      <c r="AZ15" s="86"/>
     </row>
     <row r="16" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="49">
+      <c r="A16" s="86">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="49"/>
-      <c r="T16" s="49"/>
-      <c r="U16" s="49"/>
-      <c r="V16" s="49"/>
-      <c r="W16" s="49"/>
-      <c r="X16" s="49"/>
-      <c r="Y16" s="49"/>
-      <c r="Z16" s="49"/>
-      <c r="AA16" s="49"/>
-      <c r="AB16" s="49"/>
-      <c r="AC16" s="49"/>
-      <c r="AD16" s="49"/>
-      <c r="AE16" s="49"/>
-      <c r="AF16" s="49"/>
-      <c r="AG16" s="49"/>
-      <c r="AH16" s="49"/>
-      <c r="AI16" s="49"/>
-      <c r="AJ16" s="49"/>
-      <c r="AK16" s="49"/>
-      <c r="AL16" s="49"/>
-      <c r="AM16" s="49"/>
-      <c r="AN16" s="49"/>
-      <c r="AO16" s="49"/>
-      <c r="AP16" s="49"/>
-      <c r="AQ16" s="49"/>
-      <c r="AR16" s="49"/>
-      <c r="AS16" s="49"/>
-      <c r="AT16" s="49"/>
-      <c r="AU16" s="49"/>
-      <c r="AV16" s="49"/>
-      <c r="AW16" s="49"/>
-      <c r="AX16" s="49"/>
-      <c r="AY16" s="49"/>
-      <c r="AZ16" s="49"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="86"/>
+      <c r="N16" s="86"/>
+      <c r="O16" s="86"/>
+      <c r="P16" s="86"/>
+      <c r="Q16" s="86"/>
+      <c r="R16" s="86"/>
+      <c r="S16" s="86"/>
+      <c r="T16" s="86"/>
+      <c r="U16" s="86"/>
+      <c r="V16" s="86"/>
+      <c r="W16" s="86"/>
+      <c r="X16" s="86"/>
+      <c r="Y16" s="86"/>
+      <c r="Z16" s="86"/>
+      <c r="AA16" s="86"/>
+      <c r="AB16" s="86"/>
+      <c r="AC16" s="86"/>
+      <c r="AD16" s="86"/>
+      <c r="AE16" s="86"/>
+      <c r="AF16" s="86"/>
+      <c r="AG16" s="86"/>
+      <c r="AH16" s="86"/>
+      <c r="AI16" s="86"/>
+      <c r="AJ16" s="86"/>
+      <c r="AK16" s="86"/>
+      <c r="AL16" s="86"/>
+      <c r="AM16" s="86"/>
+      <c r="AN16" s="86"/>
+      <c r="AO16" s="86"/>
+      <c r="AP16" s="86"/>
+      <c r="AQ16" s="86"/>
+      <c r="AR16" s="86"/>
+      <c r="AS16" s="86"/>
+      <c r="AT16" s="86"/>
+      <c r="AU16" s="86"/>
+      <c r="AV16" s="86"/>
+      <c r="AW16" s="86"/>
+      <c r="AX16" s="86"/>
+      <c r="AY16" s="86"/>
+      <c r="AZ16" s="86"/>
     </row>
     <row r="17" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="49">
+      <c r="A17" s="86">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="49"/>
-      <c r="T17" s="49"/>
-      <c r="U17" s="49"/>
-      <c r="V17" s="49"/>
-      <c r="W17" s="49"/>
-      <c r="X17" s="49"/>
-      <c r="Y17" s="49"/>
-      <c r="Z17" s="49"/>
-      <c r="AA17" s="49"/>
-      <c r="AB17" s="49"/>
-      <c r="AC17" s="49"/>
-      <c r="AD17" s="49"/>
-      <c r="AE17" s="49"/>
-      <c r="AF17" s="49"/>
-      <c r="AG17" s="49"/>
-      <c r="AH17" s="49"/>
-      <c r="AI17" s="49"/>
-      <c r="AJ17" s="49"/>
-      <c r="AK17" s="49"/>
-      <c r="AL17" s="49"/>
-      <c r="AM17" s="49"/>
-      <c r="AN17" s="49"/>
-      <c r="AO17" s="49"/>
-      <c r="AP17" s="49"/>
-      <c r="AQ17" s="49"/>
-      <c r="AR17" s="49"/>
-      <c r="AS17" s="49"/>
-      <c r="AT17" s="49"/>
-      <c r="AU17" s="49"/>
-      <c r="AV17" s="49"/>
-      <c r="AW17" s="49"/>
-      <c r="AX17" s="49"/>
-      <c r="AY17" s="49"/>
-      <c r="AZ17" s="49"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="86"/>
+      <c r="Q17" s="86"/>
+      <c r="R17" s="86"/>
+      <c r="S17" s="86"/>
+      <c r="T17" s="86"/>
+      <c r="U17" s="86"/>
+      <c r="V17" s="86"/>
+      <c r="W17" s="86"/>
+      <c r="X17" s="86"/>
+      <c r="Y17" s="86"/>
+      <c r="Z17" s="86"/>
+      <c r="AA17" s="86"/>
+      <c r="AB17" s="86"/>
+      <c r="AC17" s="86"/>
+      <c r="AD17" s="86"/>
+      <c r="AE17" s="86"/>
+      <c r="AF17" s="86"/>
+      <c r="AG17" s="86"/>
+      <c r="AH17" s="86"/>
+      <c r="AI17" s="86"/>
+      <c r="AJ17" s="86"/>
+      <c r="AK17" s="86"/>
+      <c r="AL17" s="86"/>
+      <c r="AM17" s="86"/>
+      <c r="AN17" s="86"/>
+      <c r="AO17" s="86"/>
+      <c r="AP17" s="86"/>
+      <c r="AQ17" s="86"/>
+      <c r="AR17" s="86"/>
+      <c r="AS17" s="86"/>
+      <c r="AT17" s="86"/>
+      <c r="AU17" s="86"/>
+      <c r="AV17" s="86"/>
+      <c r="AW17" s="86"/>
+      <c r="AX17" s="86"/>
+      <c r="AY17" s="86"/>
+      <c r="AZ17" s="86"/>
     </row>
     <row r="18" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="49">
+      <c r="A18" s="86">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="49"/>
-      <c r="T18" s="49"/>
-      <c r="U18" s="49"/>
-      <c r="V18" s="49"/>
-      <c r="W18" s="49"/>
-      <c r="X18" s="49"/>
-      <c r="Y18" s="49"/>
-      <c r="Z18" s="49"/>
-      <c r="AA18" s="49"/>
-      <c r="AB18" s="49"/>
-      <c r="AC18" s="49"/>
-      <c r="AD18" s="49"/>
-      <c r="AE18" s="49"/>
-      <c r="AF18" s="49"/>
-      <c r="AG18" s="49"/>
-      <c r="AH18" s="49"/>
-      <c r="AI18" s="49"/>
-      <c r="AJ18" s="49"/>
-      <c r="AK18" s="49"/>
-      <c r="AL18" s="49"/>
-      <c r="AM18" s="49"/>
-      <c r="AN18" s="49"/>
-      <c r="AO18" s="49"/>
-      <c r="AP18" s="49"/>
-      <c r="AQ18" s="49"/>
-      <c r="AR18" s="49"/>
-      <c r="AS18" s="49"/>
-      <c r="AT18" s="49"/>
-      <c r="AU18" s="49"/>
-      <c r="AV18" s="49"/>
-      <c r="AW18" s="49"/>
-      <c r="AX18" s="49"/>
-      <c r="AY18" s="49"/>
-      <c r="AZ18" s="49"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="86"/>
+      <c r="N18" s="86"/>
+      <c r="O18" s="86"/>
+      <c r="P18" s="86"/>
+      <c r="Q18" s="86"/>
+      <c r="R18" s="86"/>
+      <c r="S18" s="86"/>
+      <c r="T18" s="86"/>
+      <c r="U18" s="86"/>
+      <c r="V18" s="86"/>
+      <c r="W18" s="86"/>
+      <c r="X18" s="86"/>
+      <c r="Y18" s="86"/>
+      <c r="Z18" s="86"/>
+      <c r="AA18" s="86"/>
+      <c r="AB18" s="86"/>
+      <c r="AC18" s="86"/>
+      <c r="AD18" s="86"/>
+      <c r="AE18" s="86"/>
+      <c r="AF18" s="86"/>
+      <c r="AG18" s="86"/>
+      <c r="AH18" s="86"/>
+      <c r="AI18" s="86"/>
+      <c r="AJ18" s="86"/>
+      <c r="AK18" s="86"/>
+      <c r="AL18" s="86"/>
+      <c r="AM18" s="86"/>
+      <c r="AN18" s="86"/>
+      <c r="AO18" s="86"/>
+      <c r="AP18" s="86"/>
+      <c r="AQ18" s="86"/>
+      <c r="AR18" s="86"/>
+      <c r="AS18" s="86"/>
+      <c r="AT18" s="86"/>
+      <c r="AU18" s="86"/>
+      <c r="AV18" s="86"/>
+      <c r="AW18" s="86"/>
+      <c r="AX18" s="86"/>
+      <c r="AY18" s="86"/>
+      <c r="AZ18" s="86"/>
     </row>
     <row r="19" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="49">
+      <c r="A19" s="86">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="49"/>
-      <c r="S19" s="49"/>
-      <c r="T19" s="49"/>
-      <c r="U19" s="49"/>
-      <c r="V19" s="49"/>
-      <c r="W19" s="49"/>
-      <c r="X19" s="49"/>
-      <c r="Y19" s="49"/>
-      <c r="Z19" s="49"/>
-      <c r="AA19" s="49"/>
-      <c r="AB19" s="49"/>
-      <c r="AC19" s="49"/>
-      <c r="AD19" s="49"/>
-      <c r="AE19" s="49"/>
-      <c r="AF19" s="49"/>
-      <c r="AG19" s="49"/>
-      <c r="AH19" s="49"/>
-      <c r="AI19" s="49"/>
-      <c r="AJ19" s="49"/>
-      <c r="AK19" s="49"/>
-      <c r="AL19" s="49"/>
-      <c r="AM19" s="49"/>
-      <c r="AN19" s="49"/>
-      <c r="AO19" s="49"/>
-      <c r="AP19" s="49"/>
-      <c r="AQ19" s="49"/>
-      <c r="AR19" s="49"/>
-      <c r="AS19" s="49"/>
-      <c r="AT19" s="49"/>
-      <c r="AU19" s="49"/>
-      <c r="AV19" s="49"/>
-      <c r="AW19" s="49"/>
-      <c r="AX19" s="49"/>
-      <c r="AY19" s="49"/>
-      <c r="AZ19" s="49"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="86"/>
+      <c r="P19" s="86"/>
+      <c r="Q19" s="86"/>
+      <c r="R19" s="86"/>
+      <c r="S19" s="86"/>
+      <c r="T19" s="86"/>
+      <c r="U19" s="86"/>
+      <c r="V19" s="86"/>
+      <c r="W19" s="86"/>
+      <c r="X19" s="86"/>
+      <c r="Y19" s="86"/>
+      <c r="Z19" s="86"/>
+      <c r="AA19" s="86"/>
+      <c r="AB19" s="86"/>
+      <c r="AC19" s="86"/>
+      <c r="AD19" s="86"/>
+      <c r="AE19" s="86"/>
+      <c r="AF19" s="86"/>
+      <c r="AG19" s="86"/>
+      <c r="AH19" s="86"/>
+      <c r="AI19" s="86"/>
+      <c r="AJ19" s="86"/>
+      <c r="AK19" s="86"/>
+      <c r="AL19" s="86"/>
+      <c r="AM19" s="86"/>
+      <c r="AN19" s="86"/>
+      <c r="AO19" s="86"/>
+      <c r="AP19" s="86"/>
+      <c r="AQ19" s="86"/>
+      <c r="AR19" s="86"/>
+      <c r="AS19" s="86"/>
+      <c r="AT19" s="86"/>
+      <c r="AU19" s="86"/>
+      <c r="AV19" s="86"/>
+      <c r="AW19" s="86"/>
+      <c r="AX19" s="86"/>
+      <c r="AY19" s="86"/>
+      <c r="AZ19" s="86"/>
     </row>
     <row r="20" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="49">
+      <c r="A20" s="86">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="49"/>
-      <c r="S20" s="49"/>
-      <c r="T20" s="49"/>
-      <c r="U20" s="49"/>
-      <c r="V20" s="49"/>
-      <c r="W20" s="49"/>
-      <c r="X20" s="49"/>
-      <c r="Y20" s="49"/>
-      <c r="Z20" s="49"/>
-      <c r="AA20" s="49"/>
-      <c r="AB20" s="49"/>
-      <c r="AC20" s="49"/>
-      <c r="AD20" s="49"/>
-      <c r="AE20" s="49"/>
-      <c r="AF20" s="49"/>
-      <c r="AG20" s="49"/>
-      <c r="AH20" s="49"/>
-      <c r="AI20" s="49"/>
-      <c r="AJ20" s="49"/>
-      <c r="AK20" s="49"/>
-      <c r="AL20" s="49"/>
-      <c r="AM20" s="49"/>
-      <c r="AN20" s="49"/>
-      <c r="AO20" s="49"/>
-      <c r="AP20" s="49"/>
-      <c r="AQ20" s="49"/>
-      <c r="AR20" s="49"/>
-      <c r="AS20" s="49"/>
-      <c r="AT20" s="49"/>
-      <c r="AU20" s="49"/>
-      <c r="AV20" s="49"/>
-      <c r="AW20" s="49"/>
-      <c r="AX20" s="49"/>
-      <c r="AY20" s="49"/>
-      <c r="AZ20" s="49"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="86"/>
+      <c r="P20" s="86"/>
+      <c r="Q20" s="86"/>
+      <c r="R20" s="86"/>
+      <c r="S20" s="86"/>
+      <c r="T20" s="86"/>
+      <c r="U20" s="86"/>
+      <c r="V20" s="86"/>
+      <c r="W20" s="86"/>
+      <c r="X20" s="86"/>
+      <c r="Y20" s="86"/>
+      <c r="Z20" s="86"/>
+      <c r="AA20" s="86"/>
+      <c r="AB20" s="86"/>
+      <c r="AC20" s="86"/>
+      <c r="AD20" s="86"/>
+      <c r="AE20" s="86"/>
+      <c r="AF20" s="86"/>
+      <c r="AG20" s="86"/>
+      <c r="AH20" s="86"/>
+      <c r="AI20" s="86"/>
+      <c r="AJ20" s="86"/>
+      <c r="AK20" s="86"/>
+      <c r="AL20" s="86"/>
+      <c r="AM20" s="86"/>
+      <c r="AN20" s="86"/>
+      <c r="AO20" s="86"/>
+      <c r="AP20" s="86"/>
+      <c r="AQ20" s="86"/>
+      <c r="AR20" s="86"/>
+      <c r="AS20" s="86"/>
+      <c r="AT20" s="86"/>
+      <c r="AU20" s="86"/>
+      <c r="AV20" s="86"/>
+      <c r="AW20" s="86"/>
+      <c r="AX20" s="86"/>
+      <c r="AY20" s="86"/>
+      <c r="AZ20" s="86"/>
     </row>
     <row r="21" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="49">
+      <c r="A21" s="86">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="49"/>
-      <c r="S21" s="49"/>
-      <c r="T21" s="49"/>
-      <c r="U21" s="49"/>
-      <c r="V21" s="49"/>
-      <c r="W21" s="49"/>
-      <c r="X21" s="49"/>
-      <c r="Y21" s="49"/>
-      <c r="Z21" s="49"/>
-      <c r="AA21" s="49"/>
-      <c r="AB21" s="49"/>
-      <c r="AC21" s="49"/>
-      <c r="AD21" s="49"/>
-      <c r="AE21" s="49"/>
-      <c r="AF21" s="49"/>
-      <c r="AG21" s="49"/>
-      <c r="AH21" s="49"/>
-      <c r="AI21" s="49"/>
-      <c r="AJ21" s="49"/>
-      <c r="AK21" s="49"/>
-      <c r="AL21" s="49"/>
-      <c r="AM21" s="49"/>
-      <c r="AN21" s="49"/>
-      <c r="AO21" s="49"/>
-      <c r="AP21" s="49"/>
-      <c r="AQ21" s="49"/>
-      <c r="AR21" s="49"/>
-      <c r="AS21" s="49"/>
-      <c r="AT21" s="49"/>
-      <c r="AU21" s="49"/>
-      <c r="AV21" s="49"/>
-      <c r="AW21" s="49"/>
-      <c r="AX21" s="49"/>
-      <c r="AY21" s="49"/>
-      <c r="AZ21" s="49"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="86"/>
+      <c r="N21" s="86"/>
+      <c r="O21" s="86"/>
+      <c r="P21" s="86"/>
+      <c r="Q21" s="86"/>
+      <c r="R21" s="86"/>
+      <c r="S21" s="86"/>
+      <c r="T21" s="86"/>
+      <c r="U21" s="86"/>
+      <c r="V21" s="86"/>
+      <c r="W21" s="86"/>
+      <c r="X21" s="86"/>
+      <c r="Y21" s="86"/>
+      <c r="Z21" s="86"/>
+      <c r="AA21" s="86"/>
+      <c r="AB21" s="86"/>
+      <c r="AC21" s="86"/>
+      <c r="AD21" s="86"/>
+      <c r="AE21" s="86"/>
+      <c r="AF21" s="86"/>
+      <c r="AG21" s="86"/>
+      <c r="AH21" s="86"/>
+      <c r="AI21" s="86"/>
+      <c r="AJ21" s="86"/>
+      <c r="AK21" s="86"/>
+      <c r="AL21" s="86"/>
+      <c r="AM21" s="86"/>
+      <c r="AN21" s="86"/>
+      <c r="AO21" s="86"/>
+      <c r="AP21" s="86"/>
+      <c r="AQ21" s="86"/>
+      <c r="AR21" s="86"/>
+      <c r="AS21" s="86"/>
+      <c r="AT21" s="86"/>
+      <c r="AU21" s="86"/>
+      <c r="AV21" s="86"/>
+      <c r="AW21" s="86"/>
+      <c r="AX21" s="86"/>
+      <c r="AY21" s="86"/>
+      <c r="AZ21" s="86"/>
     </row>
     <row r="22" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="49">
+      <c r="A22" s="86">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="49"/>
-      <c r="S22" s="49"/>
-      <c r="T22" s="49"/>
-      <c r="U22" s="49"/>
-      <c r="V22" s="49"/>
-      <c r="W22" s="49"/>
-      <c r="X22" s="49"/>
-      <c r="Y22" s="49"/>
-      <c r="Z22" s="49"/>
-      <c r="AA22" s="49"/>
-      <c r="AB22" s="49"/>
-      <c r="AC22" s="49"/>
-      <c r="AD22" s="49"/>
-      <c r="AE22" s="49"/>
-      <c r="AF22" s="49"/>
-      <c r="AG22" s="49"/>
-      <c r="AH22" s="49"/>
-      <c r="AI22" s="49"/>
-      <c r="AJ22" s="49"/>
-      <c r="AK22" s="49"/>
-      <c r="AL22" s="49"/>
-      <c r="AM22" s="49"/>
-      <c r="AN22" s="49"/>
-      <c r="AO22" s="49"/>
-      <c r="AP22" s="49"/>
-      <c r="AQ22" s="49"/>
-      <c r="AR22" s="49"/>
-      <c r="AS22" s="49"/>
-      <c r="AT22" s="49"/>
-      <c r="AU22" s="49"/>
-      <c r="AV22" s="49"/>
-      <c r="AW22" s="49"/>
-      <c r="AX22" s="49"/>
-      <c r="AY22" s="49"/>
-      <c r="AZ22" s="49"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="86"/>
+      <c r="O22" s="86"/>
+      <c r="P22" s="86"/>
+      <c r="Q22" s="86"/>
+      <c r="R22" s="86"/>
+      <c r="S22" s="86"/>
+      <c r="T22" s="86"/>
+      <c r="U22" s="86"/>
+      <c r="V22" s="86"/>
+      <c r="W22" s="86"/>
+      <c r="X22" s="86"/>
+      <c r="Y22" s="86"/>
+      <c r="Z22" s="86"/>
+      <c r="AA22" s="86"/>
+      <c r="AB22" s="86"/>
+      <c r="AC22" s="86"/>
+      <c r="AD22" s="86"/>
+      <c r="AE22" s="86"/>
+      <c r="AF22" s="86"/>
+      <c r="AG22" s="86"/>
+      <c r="AH22" s="86"/>
+      <c r="AI22" s="86"/>
+      <c r="AJ22" s="86"/>
+      <c r="AK22" s="86"/>
+      <c r="AL22" s="86"/>
+      <c r="AM22" s="86"/>
+      <c r="AN22" s="86"/>
+      <c r="AO22" s="86"/>
+      <c r="AP22" s="86"/>
+      <c r="AQ22" s="86"/>
+      <c r="AR22" s="86"/>
+      <c r="AS22" s="86"/>
+      <c r="AT22" s="86"/>
+      <c r="AU22" s="86"/>
+      <c r="AV22" s="86"/>
+      <c r="AW22" s="86"/>
+      <c r="AX22" s="86"/>
+      <c r="AY22" s="86"/>
+      <c r="AZ22" s="86"/>
     </row>
     <row r="23" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="49">
+      <c r="A23" s="86">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="49"/>
-      <c r="S23" s="49"/>
-      <c r="T23" s="49"/>
-      <c r="U23" s="49"/>
-      <c r="V23" s="49"/>
-      <c r="W23" s="49"/>
-      <c r="X23" s="49"/>
-      <c r="Y23" s="49"/>
-      <c r="Z23" s="49"/>
-      <c r="AA23" s="49"/>
-      <c r="AB23" s="49"/>
-      <c r="AC23" s="49"/>
-      <c r="AD23" s="49"/>
-      <c r="AE23" s="49"/>
-      <c r="AF23" s="49"/>
-      <c r="AG23" s="49"/>
-      <c r="AH23" s="49"/>
-      <c r="AI23" s="49"/>
-      <c r="AJ23" s="49"/>
-      <c r="AK23" s="49"/>
-      <c r="AL23" s="49"/>
-      <c r="AM23" s="49"/>
-      <c r="AN23" s="49"/>
-      <c r="AO23" s="49"/>
-      <c r="AP23" s="49"/>
-      <c r="AQ23" s="49"/>
-      <c r="AR23" s="49"/>
-      <c r="AS23" s="49"/>
-      <c r="AT23" s="49"/>
-      <c r="AU23" s="49"/>
-      <c r="AV23" s="49"/>
-      <c r="AW23" s="49"/>
-      <c r="AX23" s="49"/>
-      <c r="AY23" s="49"/>
-      <c r="AZ23" s="49"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="86"/>
+      <c r="P23" s="86"/>
+      <c r="Q23" s="86"/>
+      <c r="R23" s="86"/>
+      <c r="S23" s="86"/>
+      <c r="T23" s="86"/>
+      <c r="U23" s="86"/>
+      <c r="V23" s="86"/>
+      <c r="W23" s="86"/>
+      <c r="X23" s="86"/>
+      <c r="Y23" s="86"/>
+      <c r="Z23" s="86"/>
+      <c r="AA23" s="86"/>
+      <c r="AB23" s="86"/>
+      <c r="AC23" s="86"/>
+      <c r="AD23" s="86"/>
+      <c r="AE23" s="86"/>
+      <c r="AF23" s="86"/>
+      <c r="AG23" s="86"/>
+      <c r="AH23" s="86"/>
+      <c r="AI23" s="86"/>
+      <c r="AJ23" s="86"/>
+      <c r="AK23" s="86"/>
+      <c r="AL23" s="86"/>
+      <c r="AM23" s="86"/>
+      <c r="AN23" s="86"/>
+      <c r="AO23" s="86"/>
+      <c r="AP23" s="86"/>
+      <c r="AQ23" s="86"/>
+      <c r="AR23" s="86"/>
+      <c r="AS23" s="86"/>
+      <c r="AT23" s="86"/>
+      <c r="AU23" s="86"/>
+      <c r="AV23" s="86"/>
+      <c r="AW23" s="86"/>
+      <c r="AX23" s="86"/>
+      <c r="AY23" s="86"/>
+      <c r="AZ23" s="86"/>
     </row>
     <row r="24" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="49">
+      <c r="A24" s="86">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="49"/>
-      <c r="T24" s="49"/>
-      <c r="U24" s="49"/>
-      <c r="V24" s="49"/>
-      <c r="W24" s="49"/>
-      <c r="X24" s="49"/>
-      <c r="Y24" s="49"/>
-      <c r="Z24" s="49"/>
-      <c r="AA24" s="49"/>
-      <c r="AB24" s="49"/>
-      <c r="AC24" s="49"/>
-      <c r="AD24" s="49"/>
-      <c r="AE24" s="49"/>
-      <c r="AF24" s="49"/>
-      <c r="AG24" s="49"/>
-      <c r="AH24" s="49"/>
-      <c r="AI24" s="49"/>
-      <c r="AJ24" s="49"/>
-      <c r="AK24" s="49"/>
-      <c r="AL24" s="49"/>
-      <c r="AM24" s="49"/>
-      <c r="AN24" s="49"/>
-      <c r="AO24" s="49"/>
-      <c r="AP24" s="49"/>
-      <c r="AQ24" s="49"/>
-      <c r="AR24" s="49"/>
-      <c r="AS24" s="49"/>
-      <c r="AT24" s="49"/>
-      <c r="AU24" s="49"/>
-      <c r="AV24" s="49"/>
-      <c r="AW24" s="49"/>
-      <c r="AX24" s="49"/>
-      <c r="AY24" s="49"/>
-      <c r="AZ24" s="49"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86"/>
+      <c r="N24" s="86"/>
+      <c r="O24" s="86"/>
+      <c r="P24" s="86"/>
+      <c r="Q24" s="86"/>
+      <c r="R24" s="86"/>
+      <c r="S24" s="86"/>
+      <c r="T24" s="86"/>
+      <c r="U24" s="86"/>
+      <c r="V24" s="86"/>
+      <c r="W24" s="86"/>
+      <c r="X24" s="86"/>
+      <c r="Y24" s="86"/>
+      <c r="Z24" s="86"/>
+      <c r="AA24" s="86"/>
+      <c r="AB24" s="86"/>
+      <c r="AC24" s="86"/>
+      <c r="AD24" s="86"/>
+      <c r="AE24" s="86"/>
+      <c r="AF24" s="86"/>
+      <c r="AG24" s="86"/>
+      <c r="AH24" s="86"/>
+      <c r="AI24" s="86"/>
+      <c r="AJ24" s="86"/>
+      <c r="AK24" s="86"/>
+      <c r="AL24" s="86"/>
+      <c r="AM24" s="86"/>
+      <c r="AN24" s="86"/>
+      <c r="AO24" s="86"/>
+      <c r="AP24" s="86"/>
+      <c r="AQ24" s="86"/>
+      <c r="AR24" s="86"/>
+      <c r="AS24" s="86"/>
+      <c r="AT24" s="86"/>
+      <c r="AU24" s="86"/>
+      <c r="AV24" s="86"/>
+      <c r="AW24" s="86"/>
+      <c r="AX24" s="86"/>
+      <c r="AY24" s="86"/>
+      <c r="AZ24" s="86"/>
     </row>
     <row r="25" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="49">
+      <c r="A25" s="86">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="49"/>
-      <c r="S25" s="49"/>
-      <c r="T25" s="49"/>
-      <c r="U25" s="49"/>
-      <c r="V25" s="49"/>
-      <c r="W25" s="49"/>
-      <c r="X25" s="49"/>
-      <c r="Y25" s="49"/>
-      <c r="Z25" s="49"/>
-      <c r="AA25" s="49"/>
-      <c r="AB25" s="49"/>
-      <c r="AC25" s="49"/>
-      <c r="AD25" s="49"/>
-      <c r="AE25" s="49"/>
-      <c r="AF25" s="49"/>
-      <c r="AG25" s="49"/>
-      <c r="AH25" s="49"/>
-      <c r="AI25" s="49"/>
-      <c r="AJ25" s="49"/>
-      <c r="AK25" s="49"/>
-      <c r="AL25" s="49"/>
-      <c r="AM25" s="49"/>
-      <c r="AN25" s="49"/>
-      <c r="AO25" s="49"/>
-      <c r="AP25" s="49"/>
-      <c r="AQ25" s="49"/>
-      <c r="AR25" s="49"/>
-      <c r="AS25" s="49"/>
-      <c r="AT25" s="49"/>
-      <c r="AU25" s="49"/>
-      <c r="AV25" s="49"/>
-      <c r="AW25" s="49"/>
-      <c r="AX25" s="49"/>
-      <c r="AY25" s="49"/>
-      <c r="AZ25" s="49"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="86"/>
+      <c r="P25" s="86"/>
+      <c r="Q25" s="86"/>
+      <c r="R25" s="86"/>
+      <c r="S25" s="86"/>
+      <c r="T25" s="86"/>
+      <c r="U25" s="86"/>
+      <c r="V25" s="86"/>
+      <c r="W25" s="86"/>
+      <c r="X25" s="86"/>
+      <c r="Y25" s="86"/>
+      <c r="Z25" s="86"/>
+      <c r="AA25" s="86"/>
+      <c r="AB25" s="86"/>
+      <c r="AC25" s="86"/>
+      <c r="AD25" s="86"/>
+      <c r="AE25" s="86"/>
+      <c r="AF25" s="86"/>
+      <c r="AG25" s="86"/>
+      <c r="AH25" s="86"/>
+      <c r="AI25" s="86"/>
+      <c r="AJ25" s="86"/>
+      <c r="AK25" s="86"/>
+      <c r="AL25" s="86"/>
+      <c r="AM25" s="86"/>
+      <c r="AN25" s="86"/>
+      <c r="AO25" s="86"/>
+      <c r="AP25" s="86"/>
+      <c r="AQ25" s="86"/>
+      <c r="AR25" s="86"/>
+      <c r="AS25" s="86"/>
+      <c r="AT25" s="86"/>
+      <c r="AU25" s="86"/>
+      <c r="AV25" s="86"/>
+      <c r="AW25" s="86"/>
+      <c r="AX25" s="86"/>
+      <c r="AY25" s="86"/>
+      <c r="AZ25" s="86"/>
     </row>
     <row r="26" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="49">
+      <c r="A26" s="86">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="49"/>
-      <c r="U26" s="49"/>
-      <c r="V26" s="49"/>
-      <c r="W26" s="49"/>
-      <c r="X26" s="49"/>
-      <c r="Y26" s="49"/>
-      <c r="Z26" s="49"/>
-      <c r="AA26" s="49"/>
-      <c r="AB26" s="49"/>
-      <c r="AC26" s="49"/>
-      <c r="AD26" s="49"/>
-      <c r="AE26" s="49"/>
-      <c r="AF26" s="49"/>
-      <c r="AG26" s="49"/>
-      <c r="AH26" s="49"/>
-      <c r="AI26" s="49"/>
-      <c r="AJ26" s="49"/>
-      <c r="AK26" s="49"/>
-      <c r="AL26" s="49"/>
-      <c r="AM26" s="49"/>
-      <c r="AN26" s="49"/>
-      <c r="AO26" s="49"/>
-      <c r="AP26" s="49"/>
-      <c r="AQ26" s="49"/>
-      <c r="AR26" s="49"/>
-      <c r="AS26" s="49"/>
-      <c r="AT26" s="49"/>
-      <c r="AU26" s="49"/>
-      <c r="AV26" s="49"/>
-      <c r="AW26" s="49"/>
-      <c r="AX26" s="49"/>
-      <c r="AY26" s="49"/>
-      <c r="AZ26" s="49"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="88"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="86"/>
+      <c r="N26" s="86"/>
+      <c r="O26" s="86"/>
+      <c r="P26" s="86"/>
+      <c r="Q26" s="86"/>
+      <c r="R26" s="86"/>
+      <c r="S26" s="86"/>
+      <c r="T26" s="86"/>
+      <c r="U26" s="86"/>
+      <c r="V26" s="86"/>
+      <c r="W26" s="86"/>
+      <c r="X26" s="86"/>
+      <c r="Y26" s="86"/>
+      <c r="Z26" s="86"/>
+      <c r="AA26" s="86"/>
+      <c r="AB26" s="86"/>
+      <c r="AC26" s="86"/>
+      <c r="AD26" s="86"/>
+      <c r="AE26" s="86"/>
+      <c r="AF26" s="86"/>
+      <c r="AG26" s="86"/>
+      <c r="AH26" s="86"/>
+      <c r="AI26" s="86"/>
+      <c r="AJ26" s="86"/>
+      <c r="AK26" s="86"/>
+      <c r="AL26" s="86"/>
+      <c r="AM26" s="86"/>
+      <c r="AN26" s="86"/>
+      <c r="AO26" s="86"/>
+      <c r="AP26" s="86"/>
+      <c r="AQ26" s="86"/>
+      <c r="AR26" s="86"/>
+      <c r="AS26" s="86"/>
+      <c r="AT26" s="86"/>
+      <c r="AU26" s="86"/>
+      <c r="AV26" s="86"/>
+      <c r="AW26" s="86"/>
+      <c r="AX26" s="86"/>
+      <c r="AY26" s="86"/>
+      <c r="AZ26" s="86"/>
     </row>
     <row r="27" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="49">
+      <c r="A27" s="86">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B27" s="49"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="49"/>
-      <c r="S27" s="49"/>
-      <c r="T27" s="49"/>
-      <c r="U27" s="49"/>
-      <c r="V27" s="49"/>
-      <c r="W27" s="49"/>
-      <c r="X27" s="49"/>
-      <c r="Y27" s="49"/>
-      <c r="Z27" s="49"/>
-      <c r="AA27" s="49"/>
-      <c r="AB27" s="49"/>
-      <c r="AC27" s="49"/>
-      <c r="AD27" s="49"/>
-      <c r="AE27" s="49"/>
-      <c r="AF27" s="49"/>
-      <c r="AG27" s="49"/>
-      <c r="AH27" s="49"/>
-      <c r="AI27" s="49"/>
-      <c r="AJ27" s="49"/>
-      <c r="AK27" s="49"/>
-      <c r="AL27" s="49"/>
-      <c r="AM27" s="49"/>
-      <c r="AN27" s="49"/>
-      <c r="AO27" s="49"/>
-      <c r="AP27" s="49"/>
-      <c r="AQ27" s="49"/>
-      <c r="AR27" s="49"/>
-      <c r="AS27" s="49"/>
-      <c r="AT27" s="49"/>
-      <c r="AU27" s="49"/>
-      <c r="AV27" s="49"/>
-      <c r="AW27" s="49"/>
-      <c r="AX27" s="49"/>
-      <c r="AY27" s="49"/>
-      <c r="AZ27" s="49"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="88"/>
+      <c r="J27" s="88"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="86"/>
+      <c r="P27" s="86"/>
+      <c r="Q27" s="86"/>
+      <c r="R27" s="86"/>
+      <c r="S27" s="86"/>
+      <c r="T27" s="86"/>
+      <c r="U27" s="86"/>
+      <c r="V27" s="86"/>
+      <c r="W27" s="86"/>
+      <c r="X27" s="86"/>
+      <c r="Y27" s="86"/>
+      <c r="Z27" s="86"/>
+      <c r="AA27" s="86"/>
+      <c r="AB27" s="86"/>
+      <c r="AC27" s="86"/>
+      <c r="AD27" s="86"/>
+      <c r="AE27" s="86"/>
+      <c r="AF27" s="86"/>
+      <c r="AG27" s="86"/>
+      <c r="AH27" s="86"/>
+      <c r="AI27" s="86"/>
+      <c r="AJ27" s="86"/>
+      <c r="AK27" s="86"/>
+      <c r="AL27" s="86"/>
+      <c r="AM27" s="86"/>
+      <c r="AN27" s="86"/>
+      <c r="AO27" s="86"/>
+      <c r="AP27" s="86"/>
+      <c r="AQ27" s="86"/>
+      <c r="AR27" s="86"/>
+      <c r="AS27" s="86"/>
+      <c r="AT27" s="86"/>
+      <c r="AU27" s="86"/>
+      <c r="AV27" s="86"/>
+      <c r="AW27" s="86"/>
+      <c r="AX27" s="86"/>
+      <c r="AY27" s="86"/>
+      <c r="AZ27" s="86"/>
     </row>
     <row r="28" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="49">
+      <c r="A28" s="86">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="49"/>
-      <c r="S28" s="49"/>
-      <c r="T28" s="49"/>
-      <c r="U28" s="49"/>
-      <c r="V28" s="49"/>
-      <c r="W28" s="49"/>
-      <c r="X28" s="49"/>
-      <c r="Y28" s="49"/>
-      <c r="Z28" s="49"/>
-      <c r="AA28" s="49"/>
-      <c r="AB28" s="49"/>
-      <c r="AC28" s="49"/>
-      <c r="AD28" s="49"/>
-      <c r="AE28" s="49"/>
-      <c r="AF28" s="49"/>
-      <c r="AG28" s="49"/>
-      <c r="AH28" s="49"/>
-      <c r="AI28" s="49"/>
-      <c r="AJ28" s="49"/>
-      <c r="AK28" s="49"/>
-      <c r="AL28" s="49"/>
-      <c r="AM28" s="49"/>
-      <c r="AN28" s="49"/>
-      <c r="AO28" s="49"/>
-      <c r="AP28" s="49"/>
-      <c r="AQ28" s="49"/>
-      <c r="AR28" s="49"/>
-      <c r="AS28" s="49"/>
-      <c r="AT28" s="49"/>
-      <c r="AU28" s="49"/>
-      <c r="AV28" s="49"/>
-      <c r="AW28" s="49"/>
-      <c r="AX28" s="49"/>
-      <c r="AY28" s="49"/>
-      <c r="AZ28" s="49"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="88"/>
+      <c r="J28" s="88"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="86"/>
+      <c r="M28" s="86"/>
+      <c r="N28" s="86"/>
+      <c r="O28" s="86"/>
+      <c r="P28" s="86"/>
+      <c r="Q28" s="86"/>
+      <c r="R28" s="86"/>
+      <c r="S28" s="86"/>
+      <c r="T28" s="86"/>
+      <c r="U28" s="86"/>
+      <c r="V28" s="86"/>
+      <c r="W28" s="86"/>
+      <c r="X28" s="86"/>
+      <c r="Y28" s="86"/>
+      <c r="Z28" s="86"/>
+      <c r="AA28" s="86"/>
+      <c r="AB28" s="86"/>
+      <c r="AC28" s="86"/>
+      <c r="AD28" s="86"/>
+      <c r="AE28" s="86"/>
+      <c r="AF28" s="86"/>
+      <c r="AG28" s="86"/>
+      <c r="AH28" s="86"/>
+      <c r="AI28" s="86"/>
+      <c r="AJ28" s="86"/>
+      <c r="AK28" s="86"/>
+      <c r="AL28" s="86"/>
+      <c r="AM28" s="86"/>
+      <c r="AN28" s="86"/>
+      <c r="AO28" s="86"/>
+      <c r="AP28" s="86"/>
+      <c r="AQ28" s="86"/>
+      <c r="AR28" s="86"/>
+      <c r="AS28" s="86"/>
+      <c r="AT28" s="86"/>
+      <c r="AU28" s="86"/>
+      <c r="AV28" s="86"/>
+      <c r="AW28" s="86"/>
+      <c r="AX28" s="86"/>
+      <c r="AY28" s="86"/>
+      <c r="AZ28" s="86"/>
     </row>
     <row r="29" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="49">
+      <c r="A29" s="86">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B29" s="49"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="49"/>
-      <c r="Q29" s="49"/>
-      <c r="R29" s="49"/>
-      <c r="S29" s="49"/>
-      <c r="T29" s="49"/>
-      <c r="U29" s="49"/>
-      <c r="V29" s="49"/>
-      <c r="W29" s="49"/>
-      <c r="X29" s="49"/>
-      <c r="Y29" s="49"/>
-      <c r="Z29" s="49"/>
-      <c r="AA29" s="49"/>
-      <c r="AB29" s="49"/>
-      <c r="AC29" s="49"/>
-      <c r="AD29" s="49"/>
-      <c r="AE29" s="49"/>
-      <c r="AF29" s="49"/>
-      <c r="AG29" s="49"/>
-      <c r="AH29" s="49"/>
-      <c r="AI29" s="49"/>
-      <c r="AJ29" s="49"/>
-      <c r="AK29" s="49"/>
-      <c r="AL29" s="49"/>
-      <c r="AM29" s="49"/>
-      <c r="AN29" s="49"/>
-      <c r="AO29" s="49"/>
-      <c r="AP29" s="49"/>
-      <c r="AQ29" s="49"/>
-      <c r="AR29" s="49"/>
-      <c r="AS29" s="49"/>
-      <c r="AT29" s="49"/>
-      <c r="AU29" s="49"/>
-      <c r="AV29" s="49"/>
-      <c r="AW29" s="49"/>
-      <c r="AX29" s="49"/>
-      <c r="AY29" s="49"/>
-      <c r="AZ29" s="49"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="88"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="86"/>
+      <c r="N29" s="86"/>
+      <c r="O29" s="86"/>
+      <c r="P29" s="86"/>
+      <c r="Q29" s="86"/>
+      <c r="R29" s="86"/>
+      <c r="S29" s="86"/>
+      <c r="T29" s="86"/>
+      <c r="U29" s="86"/>
+      <c r="V29" s="86"/>
+      <c r="W29" s="86"/>
+      <c r="X29" s="86"/>
+      <c r="Y29" s="86"/>
+      <c r="Z29" s="86"/>
+      <c r="AA29" s="86"/>
+      <c r="AB29" s="86"/>
+      <c r="AC29" s="86"/>
+      <c r="AD29" s="86"/>
+      <c r="AE29" s="86"/>
+      <c r="AF29" s="86"/>
+      <c r="AG29" s="86"/>
+      <c r="AH29" s="86"/>
+      <c r="AI29" s="86"/>
+      <c r="AJ29" s="86"/>
+      <c r="AK29" s="86"/>
+      <c r="AL29" s="86"/>
+      <c r="AM29" s="86"/>
+      <c r="AN29" s="86"/>
+      <c r="AO29" s="86"/>
+      <c r="AP29" s="86"/>
+      <c r="AQ29" s="86"/>
+      <c r="AR29" s="86"/>
+      <c r="AS29" s="86"/>
+      <c r="AT29" s="86"/>
+      <c r="AU29" s="86"/>
+      <c r="AV29" s="86"/>
+      <c r="AW29" s="86"/>
+      <c r="AX29" s="86"/>
+      <c r="AY29" s="86"/>
+      <c r="AZ29" s="86"/>
     </row>
     <row r="30" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="49">
+      <c r="A30" s="86">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B30" s="49"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="49"/>
-      <c r="Q30" s="49"/>
-      <c r="R30" s="49"/>
-      <c r="S30" s="49"/>
-      <c r="T30" s="49"/>
-      <c r="U30" s="49"/>
-      <c r="V30" s="49"/>
-      <c r="W30" s="49"/>
-      <c r="X30" s="49"/>
-      <c r="Y30" s="49"/>
-      <c r="Z30" s="49"/>
-      <c r="AA30" s="49"/>
-      <c r="AB30" s="49"/>
-      <c r="AC30" s="49"/>
-      <c r="AD30" s="49"/>
-      <c r="AE30" s="49"/>
-      <c r="AF30" s="49"/>
-      <c r="AG30" s="49"/>
-      <c r="AH30" s="49"/>
-      <c r="AI30" s="49"/>
-      <c r="AJ30" s="49"/>
-      <c r="AK30" s="49"/>
-      <c r="AL30" s="49"/>
-      <c r="AM30" s="49"/>
-      <c r="AN30" s="49"/>
-      <c r="AO30" s="49"/>
-      <c r="AP30" s="49"/>
-      <c r="AQ30" s="49"/>
-      <c r="AR30" s="49"/>
-      <c r="AS30" s="49"/>
-      <c r="AT30" s="49"/>
-      <c r="AU30" s="49"/>
-      <c r="AV30" s="49"/>
-      <c r="AW30" s="49"/>
-      <c r="AX30" s="49"/>
-      <c r="AY30" s="49"/>
-      <c r="AZ30" s="49"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="88"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="86"/>
+      <c r="M30" s="86"/>
+      <c r="N30" s="86"/>
+      <c r="O30" s="86"/>
+      <c r="P30" s="86"/>
+      <c r="Q30" s="86"/>
+      <c r="R30" s="86"/>
+      <c r="S30" s="86"/>
+      <c r="T30" s="86"/>
+      <c r="U30" s="86"/>
+      <c r="V30" s="86"/>
+      <c r="W30" s="86"/>
+      <c r="X30" s="86"/>
+      <c r="Y30" s="86"/>
+      <c r="Z30" s="86"/>
+      <c r="AA30" s="86"/>
+      <c r="AB30" s="86"/>
+      <c r="AC30" s="86"/>
+      <c r="AD30" s="86"/>
+      <c r="AE30" s="86"/>
+      <c r="AF30" s="86"/>
+      <c r="AG30" s="86"/>
+      <c r="AH30" s="86"/>
+      <c r="AI30" s="86"/>
+      <c r="AJ30" s="86"/>
+      <c r="AK30" s="86"/>
+      <c r="AL30" s="86"/>
+      <c r="AM30" s="86"/>
+      <c r="AN30" s="86"/>
+      <c r="AO30" s="86"/>
+      <c r="AP30" s="86"/>
+      <c r="AQ30" s="86"/>
+      <c r="AR30" s="86"/>
+      <c r="AS30" s="86"/>
+      <c r="AT30" s="86"/>
+      <c r="AU30" s="86"/>
+      <c r="AV30" s="86"/>
+      <c r="AW30" s="86"/>
+      <c r="AX30" s="86"/>
+      <c r="AY30" s="86"/>
+      <c r="AZ30" s="86"/>
     </row>
     <row r="31" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="49">
+      <c r="A31" s="86">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B31" s="49"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="49"/>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="49"/>
-      <c r="S31" s="49"/>
-      <c r="T31" s="49"/>
-      <c r="U31" s="49"/>
-      <c r="V31" s="49"/>
-      <c r="W31" s="49"/>
-      <c r="X31" s="49"/>
-      <c r="Y31" s="49"/>
-      <c r="Z31" s="49"/>
-      <c r="AA31" s="49"/>
-      <c r="AB31" s="49"/>
-      <c r="AC31" s="49"/>
-      <c r="AD31" s="49"/>
-      <c r="AE31" s="49"/>
-      <c r="AF31" s="49"/>
-      <c r="AG31" s="49"/>
-      <c r="AH31" s="49"/>
-      <c r="AI31" s="49"/>
-      <c r="AJ31" s="49"/>
-      <c r="AK31" s="49"/>
-      <c r="AL31" s="49"/>
-      <c r="AM31" s="49"/>
-      <c r="AN31" s="49"/>
-      <c r="AO31" s="49"/>
-      <c r="AP31" s="49"/>
-      <c r="AQ31" s="49"/>
-      <c r="AR31" s="49"/>
-      <c r="AS31" s="49"/>
-      <c r="AT31" s="49"/>
-      <c r="AU31" s="49"/>
-      <c r="AV31" s="49"/>
-      <c r="AW31" s="49"/>
-      <c r="AX31" s="49"/>
-      <c r="AY31" s="49"/>
-      <c r="AZ31" s="49"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="88"/>
+      <c r="J31" s="88"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="86"/>
+      <c r="N31" s="86"/>
+      <c r="O31" s="86"/>
+      <c r="P31" s="86"/>
+      <c r="Q31" s="86"/>
+      <c r="R31" s="86"/>
+      <c r="S31" s="86"/>
+      <c r="T31" s="86"/>
+      <c r="U31" s="86"/>
+      <c r="V31" s="86"/>
+      <c r="W31" s="86"/>
+      <c r="X31" s="86"/>
+      <c r="Y31" s="86"/>
+      <c r="Z31" s="86"/>
+      <c r="AA31" s="86"/>
+      <c r="AB31" s="86"/>
+      <c r="AC31" s="86"/>
+      <c r="AD31" s="86"/>
+      <c r="AE31" s="86"/>
+      <c r="AF31" s="86"/>
+      <c r="AG31" s="86"/>
+      <c r="AH31" s="86"/>
+      <c r="AI31" s="86"/>
+      <c r="AJ31" s="86"/>
+      <c r="AK31" s="86"/>
+      <c r="AL31" s="86"/>
+      <c r="AM31" s="86"/>
+      <c r="AN31" s="86"/>
+      <c r="AO31" s="86"/>
+      <c r="AP31" s="86"/>
+      <c r="AQ31" s="86"/>
+      <c r="AR31" s="86"/>
+      <c r="AS31" s="86"/>
+      <c r="AT31" s="86"/>
+      <c r="AU31" s="86"/>
+      <c r="AV31" s="86"/>
+      <c r="AW31" s="86"/>
+      <c r="AX31" s="86"/>
+      <c r="AY31" s="86"/>
+      <c r="AZ31" s="86"/>
     </row>
     <row r="32" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="49">
+      <c r="A32" s="86">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B32" s="49"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="49"/>
-      <c r="P32" s="49"/>
-      <c r="Q32" s="49"/>
-      <c r="R32" s="49"/>
-      <c r="S32" s="49"/>
-      <c r="T32" s="49"/>
-      <c r="U32" s="49"/>
-      <c r="V32" s="49"/>
-      <c r="W32" s="49"/>
-      <c r="X32" s="49"/>
-      <c r="Y32" s="49"/>
-      <c r="Z32" s="49"/>
-      <c r="AA32" s="49"/>
-      <c r="AB32" s="49"/>
-      <c r="AC32" s="49"/>
-      <c r="AD32" s="49"/>
-      <c r="AE32" s="49"/>
-      <c r="AF32" s="49"/>
-      <c r="AG32" s="49"/>
-      <c r="AH32" s="49"/>
-      <c r="AI32" s="49"/>
-      <c r="AJ32" s="49"/>
-      <c r="AK32" s="49"/>
-      <c r="AL32" s="49"/>
-      <c r="AM32" s="49"/>
-      <c r="AN32" s="49"/>
-      <c r="AO32" s="49"/>
-      <c r="AP32" s="49"/>
-      <c r="AQ32" s="49"/>
-      <c r="AR32" s="49"/>
-      <c r="AS32" s="49"/>
-      <c r="AT32" s="49"/>
-      <c r="AU32" s="49"/>
-      <c r="AV32" s="49"/>
-      <c r="AW32" s="49"/>
-      <c r="AX32" s="49"/>
-      <c r="AY32" s="49"/>
-      <c r="AZ32" s="49"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="87"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="88"/>
+      <c r="J32" s="88"/>
+      <c r="K32" s="86"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="86"/>
+      <c r="N32" s="86"/>
+      <c r="O32" s="86"/>
+      <c r="P32" s="86"/>
+      <c r="Q32" s="86"/>
+      <c r="R32" s="86"/>
+      <c r="S32" s="86"/>
+      <c r="T32" s="86"/>
+      <c r="U32" s="86"/>
+      <c r="V32" s="86"/>
+      <c r="W32" s="86"/>
+      <c r="X32" s="86"/>
+      <c r="Y32" s="86"/>
+      <c r="Z32" s="86"/>
+      <c r="AA32" s="86"/>
+      <c r="AB32" s="86"/>
+      <c r="AC32" s="86"/>
+      <c r="AD32" s="86"/>
+      <c r="AE32" s="86"/>
+      <c r="AF32" s="86"/>
+      <c r="AG32" s="86"/>
+      <c r="AH32" s="86"/>
+      <c r="AI32" s="86"/>
+      <c r="AJ32" s="86"/>
+      <c r="AK32" s="86"/>
+      <c r="AL32" s="86"/>
+      <c r="AM32" s="86"/>
+      <c r="AN32" s="86"/>
+      <c r="AO32" s="86"/>
+      <c r="AP32" s="86"/>
+      <c r="AQ32" s="86"/>
+      <c r="AR32" s="86"/>
+      <c r="AS32" s="86"/>
+      <c r="AT32" s="86"/>
+      <c r="AU32" s="86"/>
+      <c r="AV32" s="86"/>
+      <c r="AW32" s="86"/>
+      <c r="AX32" s="86"/>
+      <c r="AY32" s="86"/>
+      <c r="AZ32" s="86"/>
     </row>
     <row r="33" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="49">
+      <c r="A33" s="86">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B33" s="49"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="49"/>
-      <c r="P33" s="49"/>
-      <c r="Q33" s="49"/>
-      <c r="R33" s="49"/>
-      <c r="S33" s="49"/>
-      <c r="T33" s="49"/>
-      <c r="U33" s="49"/>
-      <c r="V33" s="49"/>
-      <c r="W33" s="49"/>
-      <c r="X33" s="49"/>
-      <c r="Y33" s="49"/>
-      <c r="Z33" s="49"/>
-      <c r="AA33" s="49"/>
-      <c r="AB33" s="49"/>
-      <c r="AC33" s="49"/>
-      <c r="AD33" s="49"/>
-      <c r="AE33" s="49"/>
-      <c r="AF33" s="49"/>
-      <c r="AG33" s="49"/>
-      <c r="AH33" s="49"/>
-      <c r="AI33" s="49"/>
-      <c r="AJ33" s="49"/>
-      <c r="AK33" s="49"/>
-      <c r="AL33" s="49"/>
-      <c r="AM33" s="49"/>
-      <c r="AN33" s="49"/>
-      <c r="AO33" s="49"/>
-      <c r="AP33" s="49"/>
-      <c r="AQ33" s="49"/>
-      <c r="AR33" s="49"/>
-      <c r="AS33" s="49"/>
-      <c r="AT33" s="49"/>
-      <c r="AU33" s="49"/>
-      <c r="AV33" s="49"/>
-      <c r="AW33" s="49"/>
-      <c r="AX33" s="49"/>
-      <c r="AY33" s="49"/>
-      <c r="AZ33" s="49"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="88"/>
+      <c r="I33" s="88"/>
+      <c r="J33" s="88"/>
+      <c r="K33" s="86"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="86"/>
+      <c r="N33" s="86"/>
+      <c r="O33" s="86"/>
+      <c r="P33" s="86"/>
+      <c r="Q33" s="86"/>
+      <c r="R33" s="86"/>
+      <c r="S33" s="86"/>
+      <c r="T33" s="86"/>
+      <c r="U33" s="86"/>
+      <c r="V33" s="86"/>
+      <c r="W33" s="86"/>
+      <c r="X33" s="86"/>
+      <c r="Y33" s="86"/>
+      <c r="Z33" s="86"/>
+      <c r="AA33" s="86"/>
+      <c r="AB33" s="86"/>
+      <c r="AC33" s="86"/>
+      <c r="AD33" s="86"/>
+      <c r="AE33" s="86"/>
+      <c r="AF33" s="86"/>
+      <c r="AG33" s="86"/>
+      <c r="AH33" s="86"/>
+      <c r="AI33" s="86"/>
+      <c r="AJ33" s="86"/>
+      <c r="AK33" s="86"/>
+      <c r="AL33" s="86"/>
+      <c r="AM33" s="86"/>
+      <c r="AN33" s="86"/>
+      <c r="AO33" s="86"/>
+      <c r="AP33" s="86"/>
+      <c r="AQ33" s="86"/>
+      <c r="AR33" s="86"/>
+      <c r="AS33" s="86"/>
+      <c r="AT33" s="86"/>
+      <c r="AU33" s="86"/>
+      <c r="AV33" s="86"/>
+      <c r="AW33" s="86"/>
+      <c r="AX33" s="86"/>
+      <c r="AY33" s="86"/>
+      <c r="AZ33" s="86"/>
     </row>
     <row r="34" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="49">
+      <c r="A34" s="86">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B34" s="49"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="49"/>
-      <c r="O34" s="49"/>
-      <c r="P34" s="49"/>
-      <c r="Q34" s="49"/>
-      <c r="R34" s="49"/>
-      <c r="S34" s="49"/>
-      <c r="T34" s="49"/>
-      <c r="U34" s="49"/>
-      <c r="V34" s="49"/>
-      <c r="W34" s="49"/>
-      <c r="X34" s="49"/>
-      <c r="Y34" s="49"/>
-      <c r="Z34" s="49"/>
-      <c r="AA34" s="49"/>
-      <c r="AB34" s="49"/>
-      <c r="AC34" s="49"/>
-      <c r="AD34" s="49"/>
-      <c r="AE34" s="49"/>
-      <c r="AF34" s="49"/>
-      <c r="AG34" s="49"/>
-      <c r="AH34" s="49"/>
-      <c r="AI34" s="49"/>
-      <c r="AJ34" s="49"/>
-      <c r="AK34" s="49"/>
-      <c r="AL34" s="49"/>
-      <c r="AM34" s="49"/>
-      <c r="AN34" s="49"/>
-      <c r="AO34" s="49"/>
-      <c r="AP34" s="49"/>
-      <c r="AQ34" s="49"/>
-      <c r="AR34" s="49"/>
-      <c r="AS34" s="49"/>
-      <c r="AT34" s="49"/>
-      <c r="AU34" s="49"/>
-      <c r="AV34" s="49"/>
-      <c r="AW34" s="49"/>
-      <c r="AX34" s="49"/>
-      <c r="AY34" s="49"/>
-      <c r="AZ34" s="49"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="88"/>
+      <c r="I34" s="88"/>
+      <c r="J34" s="88"/>
+      <c r="K34" s="86"/>
+      <c r="L34" s="86"/>
+      <c r="M34" s="86"/>
+      <c r="N34" s="86"/>
+      <c r="O34" s="86"/>
+      <c r="P34" s="86"/>
+      <c r="Q34" s="86"/>
+      <c r="R34" s="86"/>
+      <c r="S34" s="86"/>
+      <c r="T34" s="86"/>
+      <c r="U34" s="86"/>
+      <c r="V34" s="86"/>
+      <c r="W34" s="86"/>
+      <c r="X34" s="86"/>
+      <c r="Y34" s="86"/>
+      <c r="Z34" s="86"/>
+      <c r="AA34" s="86"/>
+      <c r="AB34" s="86"/>
+      <c r="AC34" s="86"/>
+      <c r="AD34" s="86"/>
+      <c r="AE34" s="86"/>
+      <c r="AF34" s="86"/>
+      <c r="AG34" s="86"/>
+      <c r="AH34" s="86"/>
+      <c r="AI34" s="86"/>
+      <c r="AJ34" s="86"/>
+      <c r="AK34" s="86"/>
+      <c r="AL34" s="86"/>
+      <c r="AM34" s="86"/>
+      <c r="AN34" s="86"/>
+      <c r="AO34" s="86"/>
+      <c r="AP34" s="86"/>
+      <c r="AQ34" s="86"/>
+      <c r="AR34" s="86"/>
+      <c r="AS34" s="86"/>
+      <c r="AT34" s="86"/>
+      <c r="AU34" s="86"/>
+      <c r="AV34" s="86"/>
+      <c r="AW34" s="86"/>
+      <c r="AX34" s="86"/>
+      <c r="AY34" s="86"/>
+      <c r="AZ34" s="86"/>
     </row>
     <row r="35" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="49">
+      <c r="A35" s="86">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B35" s="49"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="49"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="49"/>
-      <c r="Q35" s="49"/>
-      <c r="R35" s="49"/>
-      <c r="S35" s="49"/>
-      <c r="T35" s="49"/>
-      <c r="U35" s="49"/>
-      <c r="V35" s="49"/>
-      <c r="W35" s="49"/>
-      <c r="X35" s="49"/>
-      <c r="Y35" s="49"/>
-      <c r="Z35" s="49"/>
-      <c r="AA35" s="49"/>
-      <c r="AB35" s="49"/>
-      <c r="AC35" s="49"/>
-      <c r="AD35" s="49"/>
-      <c r="AE35" s="49"/>
-      <c r="AF35" s="49"/>
-      <c r="AG35" s="49"/>
-      <c r="AH35" s="49"/>
-      <c r="AI35" s="49"/>
-      <c r="AJ35" s="49"/>
-      <c r="AK35" s="49"/>
-      <c r="AL35" s="49"/>
-      <c r="AM35" s="49"/>
-      <c r="AN35" s="49"/>
-      <c r="AO35" s="49"/>
-      <c r="AP35" s="49"/>
-      <c r="AQ35" s="49"/>
-      <c r="AR35" s="49"/>
-      <c r="AS35" s="49"/>
-      <c r="AT35" s="49"/>
-      <c r="AU35" s="49"/>
-      <c r="AV35" s="49"/>
-      <c r="AW35" s="49"/>
-      <c r="AX35" s="49"/>
-      <c r="AY35" s="49"/>
-      <c r="AZ35" s="49"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="88"/>
+      <c r="H35" s="88"/>
+      <c r="I35" s="88"/>
+      <c r="J35" s="88"/>
+      <c r="K35" s="86"/>
+      <c r="L35" s="86"/>
+      <c r="M35" s="86"/>
+      <c r="N35" s="86"/>
+      <c r="O35" s="86"/>
+      <c r="P35" s="86"/>
+      <c r="Q35" s="86"/>
+      <c r="R35" s="86"/>
+      <c r="S35" s="86"/>
+      <c r="T35" s="86"/>
+      <c r="U35" s="86"/>
+      <c r="V35" s="86"/>
+      <c r="W35" s="86"/>
+      <c r="X35" s="86"/>
+      <c r="Y35" s="86"/>
+      <c r="Z35" s="86"/>
+      <c r="AA35" s="86"/>
+      <c r="AB35" s="86"/>
+      <c r="AC35" s="86"/>
+      <c r="AD35" s="86"/>
+      <c r="AE35" s="86"/>
+      <c r="AF35" s="86"/>
+      <c r="AG35" s="86"/>
+      <c r="AH35" s="86"/>
+      <c r="AI35" s="86"/>
+      <c r="AJ35" s="86"/>
+      <c r="AK35" s="86"/>
+      <c r="AL35" s="86"/>
+      <c r="AM35" s="86"/>
+      <c r="AN35" s="86"/>
+      <c r="AO35" s="86"/>
+      <c r="AP35" s="86"/>
+      <c r="AQ35" s="86"/>
+      <c r="AR35" s="86"/>
+      <c r="AS35" s="86"/>
+      <c r="AT35" s="86"/>
+      <c r="AU35" s="86"/>
+      <c r="AV35" s="86"/>
+      <c r="AW35" s="86"/>
+      <c r="AX35" s="86"/>
+      <c r="AY35" s="86"/>
+      <c r="AZ35" s="86"/>
     </row>
     <row r="36" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="49">
+      <c r="A36" s="86">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B36" s="49"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="49"/>
-      <c r="N36" s="49"/>
-      <c r="O36" s="49"/>
-      <c r="P36" s="49"/>
-      <c r="Q36" s="49"/>
-      <c r="R36" s="49"/>
-      <c r="S36" s="49"/>
-      <c r="T36" s="49"/>
-      <c r="U36" s="49"/>
-      <c r="V36" s="49"/>
-      <c r="W36" s="49"/>
-      <c r="X36" s="49"/>
-      <c r="Y36" s="49"/>
-      <c r="Z36" s="49"/>
-      <c r="AA36" s="49"/>
-      <c r="AB36" s="49"/>
-      <c r="AC36" s="49"/>
-      <c r="AD36" s="49"/>
-      <c r="AE36" s="49"/>
-      <c r="AF36" s="49"/>
-      <c r="AG36" s="49"/>
-      <c r="AH36" s="49"/>
-      <c r="AI36" s="49"/>
-      <c r="AJ36" s="49"/>
-      <c r="AK36" s="49"/>
-      <c r="AL36" s="49"/>
-      <c r="AM36" s="49"/>
-      <c r="AN36" s="49"/>
-      <c r="AO36" s="49"/>
-      <c r="AP36" s="49"/>
-      <c r="AQ36" s="49"/>
-      <c r="AR36" s="49"/>
-      <c r="AS36" s="49"/>
-      <c r="AT36" s="49"/>
-      <c r="AU36" s="49"/>
-      <c r="AV36" s="49"/>
-      <c r="AW36" s="49"/>
-      <c r="AX36" s="49"/>
-      <c r="AY36" s="49"/>
-      <c r="AZ36" s="49"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="88"/>
+      <c r="H36" s="88"/>
+      <c r="I36" s="88"/>
+      <c r="J36" s="88"/>
+      <c r="K36" s="86"/>
+      <c r="L36" s="86"/>
+      <c r="M36" s="86"/>
+      <c r="N36" s="86"/>
+      <c r="O36" s="86"/>
+      <c r="P36" s="86"/>
+      <c r="Q36" s="86"/>
+      <c r="R36" s="86"/>
+      <c r="S36" s="86"/>
+      <c r="T36" s="86"/>
+      <c r="U36" s="86"/>
+      <c r="V36" s="86"/>
+      <c r="W36" s="86"/>
+      <c r="X36" s="86"/>
+      <c r="Y36" s="86"/>
+      <c r="Z36" s="86"/>
+      <c r="AA36" s="86"/>
+      <c r="AB36" s="86"/>
+      <c r="AC36" s="86"/>
+      <c r="AD36" s="86"/>
+      <c r="AE36" s="86"/>
+      <c r="AF36" s="86"/>
+      <c r="AG36" s="86"/>
+      <c r="AH36" s="86"/>
+      <c r="AI36" s="86"/>
+      <c r="AJ36" s="86"/>
+      <c r="AK36" s="86"/>
+      <c r="AL36" s="86"/>
+      <c r="AM36" s="86"/>
+      <c r="AN36" s="86"/>
+      <c r="AO36" s="86"/>
+      <c r="AP36" s="86"/>
+      <c r="AQ36" s="86"/>
+      <c r="AR36" s="86"/>
+      <c r="AS36" s="86"/>
+      <c r="AT36" s="86"/>
+      <c r="AU36" s="86"/>
+      <c r="AV36" s="86"/>
+      <c r="AW36" s="86"/>
+      <c r="AX36" s="86"/>
+      <c r="AY36" s="86"/>
+      <c r="AZ36" s="86"/>
     </row>
     <row r="37" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="49">
+      <c r="A37" s="86">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B37" s="49"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="49"/>
-      <c r="M37" s="49"/>
-      <c r="N37" s="49"/>
-      <c r="O37" s="49"/>
-      <c r="P37" s="49"/>
-      <c r="Q37" s="49"/>
-      <c r="R37" s="49"/>
-      <c r="S37" s="49"/>
-      <c r="T37" s="49"/>
-      <c r="U37" s="49"/>
-      <c r="V37" s="49"/>
-      <c r="W37" s="49"/>
-      <c r="X37" s="49"/>
-      <c r="Y37" s="49"/>
-      <c r="Z37" s="49"/>
-      <c r="AA37" s="49"/>
-      <c r="AB37" s="49"/>
-      <c r="AC37" s="49"/>
-      <c r="AD37" s="49"/>
-      <c r="AE37" s="49"/>
-      <c r="AF37" s="49"/>
-      <c r="AG37" s="49"/>
-      <c r="AH37" s="49"/>
-      <c r="AI37" s="49"/>
-      <c r="AJ37" s="49"/>
-      <c r="AK37" s="49"/>
-      <c r="AL37" s="49"/>
-      <c r="AM37" s="49"/>
-      <c r="AN37" s="49"/>
-      <c r="AO37" s="49"/>
-      <c r="AP37" s="49"/>
-      <c r="AQ37" s="49"/>
-      <c r="AR37" s="49"/>
-      <c r="AS37" s="49"/>
-      <c r="AT37" s="49"/>
-      <c r="AU37" s="49"/>
-      <c r="AV37" s="49"/>
-      <c r="AW37" s="49"/>
-      <c r="AX37" s="49"/>
-      <c r="AY37" s="49"/>
-      <c r="AZ37" s="49"/>
+      <c r="B37" s="86"/>
+      <c r="C37" s="87"/>
+      <c r="D37" s="87"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="87"/>
+      <c r="G37" s="88"/>
+      <c r="H37" s="88"/>
+      <c r="I37" s="88"/>
+      <c r="J37" s="88"/>
+      <c r="K37" s="86"/>
+      <c r="L37" s="86"/>
+      <c r="M37" s="86"/>
+      <c r="N37" s="86"/>
+      <c r="O37" s="86"/>
+      <c r="P37" s="86"/>
+      <c r="Q37" s="86"/>
+      <c r="R37" s="86"/>
+      <c r="S37" s="86"/>
+      <c r="T37" s="86"/>
+      <c r="U37" s="86"/>
+      <c r="V37" s="86"/>
+      <c r="W37" s="86"/>
+      <c r="X37" s="86"/>
+      <c r="Y37" s="86"/>
+      <c r="Z37" s="86"/>
+      <c r="AA37" s="86"/>
+      <c r="AB37" s="86"/>
+      <c r="AC37" s="86"/>
+      <c r="AD37" s="86"/>
+      <c r="AE37" s="86"/>
+      <c r="AF37" s="86"/>
+      <c r="AG37" s="86"/>
+      <c r="AH37" s="86"/>
+      <c r="AI37" s="86"/>
+      <c r="AJ37" s="86"/>
+      <c r="AK37" s="86"/>
+      <c r="AL37" s="86"/>
+      <c r="AM37" s="86"/>
+      <c r="AN37" s="86"/>
+      <c r="AO37" s="86"/>
+      <c r="AP37" s="86"/>
+      <c r="AQ37" s="86"/>
+      <c r="AR37" s="86"/>
+      <c r="AS37" s="86"/>
+      <c r="AT37" s="86"/>
+      <c r="AU37" s="86"/>
+      <c r="AV37" s="86"/>
+      <c r="AW37" s="86"/>
+      <c r="AX37" s="86"/>
+      <c r="AY37" s="86"/>
+      <c r="AZ37" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="171">
-    <mergeCell ref="A1:AZ2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:T4"/>
-    <mergeCell ref="U4:AZ4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K5:T5"/>
-    <mergeCell ref="U5:AZ5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="K6:T6"/>
-    <mergeCell ref="U6:AZ6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="K7:T7"/>
-    <mergeCell ref="U7:AZ7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="U8:AZ8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="K9:T9"/>
-    <mergeCell ref="U9:AZ9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="U10:AZ10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="U11:AZ11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:T12"/>
-    <mergeCell ref="U12:AZ12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="K13:T13"/>
-    <mergeCell ref="U13:AZ13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K14:T14"/>
-    <mergeCell ref="U14:AZ14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:T15"/>
-    <mergeCell ref="U15:AZ15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:T16"/>
-    <mergeCell ref="U16:AZ16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:T17"/>
-    <mergeCell ref="U17:AZ17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:T18"/>
-    <mergeCell ref="U18:AZ18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:T19"/>
-    <mergeCell ref="U19:AZ19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:T20"/>
-    <mergeCell ref="U20:AZ20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:T21"/>
-    <mergeCell ref="U21:AZ21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:T22"/>
-    <mergeCell ref="U22:AZ22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:T23"/>
-    <mergeCell ref="U23:AZ23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:T24"/>
-    <mergeCell ref="U24:AZ24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:T25"/>
-    <mergeCell ref="U25:AZ25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K26:T26"/>
-    <mergeCell ref="U26:AZ26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:T27"/>
-    <mergeCell ref="U27:AZ27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:T28"/>
-    <mergeCell ref="U28:AZ28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:T29"/>
-    <mergeCell ref="U29:AZ29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="K30:T30"/>
-    <mergeCell ref="U30:AZ30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="K31:T31"/>
-    <mergeCell ref="U31:AZ31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="K32:T32"/>
-    <mergeCell ref="U32:AZ32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K33:T33"/>
-    <mergeCell ref="U33:AZ33"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="C34:F34"/>
     <mergeCell ref="G34:J34"/>
@@ -6656,6 +6336,157 @@
     <mergeCell ref="G36:J36"/>
     <mergeCell ref="K36:T36"/>
     <mergeCell ref="U36:AZ36"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="K32:T32"/>
+    <mergeCell ref="U32:AZ32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="K33:T33"/>
+    <mergeCell ref="U33:AZ33"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="K30:T30"/>
+    <mergeCell ref="U30:AZ30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="K31:T31"/>
+    <mergeCell ref="U31:AZ31"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:T28"/>
+    <mergeCell ref="U28:AZ28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:T29"/>
+    <mergeCell ref="U29:AZ29"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K26:T26"/>
+    <mergeCell ref="U26:AZ26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:T27"/>
+    <mergeCell ref="U27:AZ27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:T24"/>
+    <mergeCell ref="U24:AZ24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:T25"/>
+    <mergeCell ref="U25:AZ25"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:T22"/>
+    <mergeCell ref="U22:AZ22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:T23"/>
+    <mergeCell ref="U23:AZ23"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:T20"/>
+    <mergeCell ref="U20:AZ20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:T21"/>
+    <mergeCell ref="U21:AZ21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:T18"/>
+    <mergeCell ref="U18:AZ18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:T19"/>
+    <mergeCell ref="U19:AZ19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:T16"/>
+    <mergeCell ref="U16:AZ16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:T17"/>
+    <mergeCell ref="U17:AZ17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:T14"/>
+    <mergeCell ref="U14:AZ14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:T15"/>
+    <mergeCell ref="U15:AZ15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:T12"/>
+    <mergeCell ref="U12:AZ12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="U13:AZ13"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="U10:AZ10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U11:AZ11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="U8:AZ8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:T9"/>
+    <mergeCell ref="U9:AZ9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="K6:T6"/>
+    <mergeCell ref="U6:AZ6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="K7:T7"/>
+    <mergeCell ref="U7:AZ7"/>
+    <mergeCell ref="A1:AZ2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:T4"/>
+    <mergeCell ref="U4:AZ4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K5:T5"/>
+    <mergeCell ref="U5:AZ5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -6674,10 +6505,10 @@
   <dimension ref="B2:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -6695,333 +6526,429 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="30" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="81" t="s">
+      <c r="G3" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="82" t="s">
+      <c r="H3" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="83" t="s">
+      <c r="I3" s="42" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="84" t="s">
+    <row r="4" spans="2:9" ht="35.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="85">
+      <c r="C4" s="43">
         <v>3.01</v>
       </c>
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="87" t="s">
+      <c r="E4" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="88" t="s">
+      <c r="F4" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="89"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="91"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B5" s="61"/>
+      <c r="G4" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="48">
+        <v>44007</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="94"/>
       <c r="C5" s="8">
         <v>3.02</v>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="75" t="s">
+      <c r="D5" s="90"/>
+      <c r="E5" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="24"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B6" s="61"/>
+      <c r="G5" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="48">
+        <v>44007</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="94"/>
       <c r="C6" s="8">
         <v>3.03</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="73" t="s">
+      <c r="D6" s="90"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="23"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B7" s="61"/>
+      <c r="G6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="48">
+        <v>44007</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="94"/>
       <c r="C7" s="8">
         <v>3.04</v>
       </c>
-      <c r="D7" s="78" t="s">
+      <c r="D7" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="76" t="s">
+      <c r="E7" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="74" t="s">
+      <c r="F7" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="24"/>
-    </row>
-    <row r="8" spans="2:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="61"/>
+      <c r="G7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="48">
+        <v>44007</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="94"/>
       <c r="C8" s="8">
         <v>3.05</v>
       </c>
-      <c r="D8" s="78"/>
-      <c r="E8" s="76" t="s">
+      <c r="D8" s="92"/>
+      <c r="E8" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="71" t="s">
+      <c r="F8" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="24"/>
-    </row>
-    <row r="9" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="61"/>
+      <c r="G8" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="48">
+        <v>44007</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="94"/>
       <c r="C9" s="8">
         <v>3.06</v>
       </c>
-      <c r="D9" s="78"/>
-      <c r="E9" s="76" t="s">
+      <c r="D9" s="92"/>
+      <c r="E9" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="71" t="s">
+      <c r="F9" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="24"/>
-    </row>
-    <row r="10" spans="2:9" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="61"/>
+      <c r="G9" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="48">
+        <v>44007</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="31.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="94"/>
       <c r="C10" s="8">
         <v>3.07</v>
       </c>
-      <c r="D10" s="78"/>
-      <c r="E10" s="76" t="s">
+      <c r="D10" s="92"/>
+      <c r="E10" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="71" t="s">
+      <c r="F10" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="24"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B11" s="61"/>
+      <c r="G10" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="48">
+        <v>44007</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="94"/>
       <c r="C11" s="8">
         <v>3.08</v>
       </c>
-      <c r="D11" s="78"/>
-      <c r="E11" s="22" t="s">
+      <c r="D11" s="92"/>
+      <c r="E11" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="71" t="s">
+      <c r="F11" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="24"/>
+      <c r="G11" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="48">
+        <v>44007</v>
+      </c>
     </row>
     <row r="12" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="72"/>
-      <c r="C12" s="67">
+      <c r="B12" s="95"/>
+      <c r="C12" s="33">
         <v>3.09</v>
       </c>
-      <c r="D12" s="92" t="s">
+      <c r="D12" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="93" t="s">
+      <c r="E12" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="94" t="s">
+      <c r="F12" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="68"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="70"/>
-    </row>
-    <row r="13" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="84" t="s">
+      <c r="G12" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="48">
+        <v>44007</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="85">
+      <c r="C13" s="43">
         <v>3.1</v>
       </c>
-      <c r="D13" s="95" t="s">
+      <c r="D13" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="87" t="s">
+      <c r="E13" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="88" t="s">
+      <c r="F13" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="96"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="98"/>
-    </row>
-    <row r="14" spans="2:9" ht="31.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="61"/>
+      <c r="G13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="48">
+        <v>44007</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="94"/>
       <c r="C14" s="8">
         <v>3.11</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="76" t="s">
+      <c r="E14" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="74" t="s">
+      <c r="F14" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="24"/>
+      <c r="G14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="48">
+        <v>44007</v>
+      </c>
     </row>
     <row r="15" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="72"/>
-      <c r="C15" s="67">
+      <c r="B15" s="95"/>
+      <c r="C15" s="33">
         <v>3.12</v>
       </c>
-      <c r="D15" s="92" t="s">
+      <c r="D15" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="93" t="s">
+      <c r="E15" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="99" t="s">
+      <c r="F15" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="68"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="70"/>
-    </row>
-    <row r="16" spans="2:9" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="B16" s="100"/>
-      <c r="C16" s="85">
+      <c r="G15" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="48">
+        <v>44007</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="38.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="54"/>
+      <c r="C16" s="43">
         <v>3.13</v>
       </c>
-      <c r="D16" s="101" t="s">
+      <c r="D16" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="102" t="s">
+      <c r="E16" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="103" t="s">
+      <c r="F16" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="104"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="98"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B17" s="25"/>
+      <c r="G16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="48">
+        <v>44007</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="22"/>
       <c r="C17" s="8">
         <v>3.14</v>
       </c>
-      <c r="D17" s="79"/>
-      <c r="E17" s="77" t="s">
+      <c r="D17" s="97"/>
+      <c r="E17" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="73" t="s">
+      <c r="F17" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="24"/>
+      <c r="G17" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" s="48">
+        <v>44007</v>
+      </c>
     </row>
     <row r="18" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="66"/>
-      <c r="C18" s="67">
+      <c r="B18" s="32"/>
+      <c r="C18" s="33">
         <v>3.15</v>
       </c>
-      <c r="D18" s="92" t="s">
+      <c r="D18" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="93" t="s">
+      <c r="E18" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="94" t="s">
+      <c r="F18" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="G18" s="68"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="70"/>
+      <c r="G18" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="48">
+        <v>44007</v>
+      </c>
     </row>
     <row r="19" spans="2:9" ht="38.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="105" t="s">
+      <c r="B19" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="106">
+      <c r="C19" s="58">
         <v>3.16</v>
       </c>
-      <c r="D19" s="107" t="s">
+      <c r="D19" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="108" t="s">
+      <c r="E19" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="109" t="s">
+      <c r="F19" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="110"/>
-      <c r="H19" s="111"/>
-      <c r="I19" s="112"/>
+      <c r="G19" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="48">
+        <v>44007</v>
+      </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="33"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="29"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B21" s="30"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="33"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="29"/>
     </row>
     <row r="24" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="G24" s="7" t="s">
@@ -7034,8 +6961,8 @@
       </c>
       <c r="H25" s="12"/>
       <c r="I25" s="13">
-        <f>COUNTIF($G$4:$G$21,"=○")</f>
-        <v>0</v>
+        <f>COUNTIF($G$4:$G$19,"=○")</f>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
@@ -7043,8 +6970,8 @@
         <v>25</v>
       </c>
       <c r="H26" s="15"/>
-      <c r="I26" s="16">
-        <f>COUNTIF($G$4:$G$21,"=*")</f>
+      <c r="I26" s="13">
+        <f>COUNTIF($G$4:$G$19,"=×")</f>
         <v>0</v>
       </c>
     </row>
@@ -7054,8 +6981,8 @@
       </c>
       <c r="H27" s="15"/>
       <c r="I27" s="16">
-        <f>COUNTBLANK($G$4:$G$21)</f>
-        <v>18</v>
+        <f>COUNTBLANK($G$4:$G$19)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
@@ -7065,17 +6992,17 @@
       <c r="H28" s="18"/>
       <c r="I28" s="19">
         <f>I25/(I25+I26+I27)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="D16:D17"/>
     <mergeCell ref="D4:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="D7:D11"/>
     <mergeCell ref="B4:B12"/>
     <mergeCell ref="B13:B15"/>
-    <mergeCell ref="D16:D17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="G4:G21">
